--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>675676.1025574579</v>
+        <v>674844.8839768932</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2370706.002661969</v>
+        <v>2370706.002661968</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13208874.16798986</v>
+        <v>13208874.16798987</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>177.352302250623</v>
       </c>
       <c r="W3" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -899,70 +899,70 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>125.2132019625774</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>106.8110878221261</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>65.0411810902248</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>154.2394007362223</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>58.23912399185231</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>175.7799687028017</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8900351920932</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>164.4530035161875</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.85035585376414</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>33.78476357606921</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>167.3366572553333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.4096541723789</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>135.7732247714497</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>47.09860742570435</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>138.7975859476682</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,64 +1604,64 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>58.23912399185231</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>216.7103951870705</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>241.0142888776591</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>178.3501553421783</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.216361016553991</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>62.52509433669674</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.0188759693406</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>204.0403274937688</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3366572553333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.4096541723789</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>135.7732247714497</v>
       </c>
       <c r="J16" t="n">
-        <v>28.40815178848263</v>
+        <v>47.09860742570435</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.37148968907253</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>147.8726902675475</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.6135482943226</v>
+        <v>138.7975859476682</v>
       </c>
       <c r="T16" t="n">
-        <v>225.1498495331092</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>260.476191759844</v>
       </c>
       <c r="C17" t="n">
-        <v>110.1912226833928</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>324.535902141107</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>154.2394007362223</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>58.23912399185231</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>175.7799687028017</v>
       </c>
       <c r="T17" t="n">
         <v>216.7103951870705</v>
@@ -1901,16 +1901,16 @@
         <v>251.2289569968908</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>136.5630444522099</v>
       </c>
       <c r="H18" t="n">
-        <v>95.92575957869519</v>
+        <v>104.6977209486736</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>62.52509433669674</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>134.3856400706287</v>
       </c>
     </row>
     <row r="19">
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>72.60939217598674</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>147.8726902675475</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2833390599567</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>211.020040968396</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>242.9836965672243</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>387.3271696592156</v>
+        <v>413.8440386283136</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.23912399185231</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>175.7799687028017</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>73.77215668670826</v>
       </c>
       <c r="G21" t="n">
         <v>136.5630444522099</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>51.70006355208863</v>
       </c>
       <c r="S21" t="n">
-        <v>137.5892406550054</v>
+        <v>157.1862328095917</v>
       </c>
       <c r="T21" t="n">
         <v>197.0188759693406</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>80.52038097044192</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3366572553333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>147.8726902675475</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6135482943226</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.1498495331092</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>59.77964147755581</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>284.1014437653474</v>
+        <v>413.8440386283136</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>324.535902141107</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>58.23912399185231</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.7103951870705</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>10.0835448502722</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>76.14800985796349</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,7 +2409,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>65.2659887455348</v>
+        <v>136.5630444522099</v>
       </c>
       <c r="H24" t="n">
         <v>104.6977209486736</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.3080778838487</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.1830758469064</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>303.929198520457</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>16.39452784952866</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.8440386283136</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>58.23912399185231</v>
       </c>
       <c r="S26" t="n">
         <v>175.7799687028017</v>
@@ -2609,19 +2609,19 @@
         <v>216.7103951870705</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2289569968908</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>95.23612794319214</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>127.7910830822315</v>
+        <v>136.5630444522099</v>
       </c>
       <c r="H27" t="n">
         <v>104.6977209486736</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>62.52509433669674</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>174.6934328966117</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.60939217598742</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2833390599567</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.8440386283136</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>277.738778593492</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>58.23912399185231</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>208.2829684564619</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>104.6977209486736</v>
       </c>
       <c r="I30" t="n">
-        <v>62.52509433669675</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>51.70006355208863</v>
       </c>
       <c r="S30" t="n">
         <v>157.1862328095917</v>
       </c>
       <c r="T30" t="n">
-        <v>197.0188759693406</v>
+        <v>188.2469145993616</v>
       </c>
       <c r="U30" t="n">
         <v>225.8900351920932</v>
       </c>
       <c r="V30" t="n">
-        <v>213.2035949948385</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>94.58773743623601</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,25 +2992,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>31.37148968907253</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>147.8726902675475</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.1498495331092</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2833390599567</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>72.60939217598674</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8607734323372</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.8440386283136</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>324.535902141107</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>175.7799687028017</v>
       </c>
       <c r="T32" t="n">
-        <v>216.7103951870705</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2289569968908</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>199.5762902925443</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3117,16 +3117,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>73.77215668670826</v>
       </c>
       <c r="G33" t="n">
         <v>136.5630444522099</v>
       </c>
       <c r="H33" t="n">
-        <v>95.92575957869475</v>
+        <v>104.6977209486736</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>62.52509433669675</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>79.66243878316901</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>41.23790248691396</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3366572553333</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>31.37148968907253</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2833390599567</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>292.0310887952146</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4973967977928</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>154.2394007362223</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>58.23912399185232</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>175.7799687028017</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.7103951870705</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2289569968908</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>136.5630444522099</v>
       </c>
       <c r="H36" t="n">
-        <v>95.92575957869475</v>
+        <v>104.6977209486736</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>62.52509433669675</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>157.1862328095917</v>
       </c>
       <c r="T36" t="n">
-        <v>197.0188759693406</v>
+        <v>125.7218202626648</v>
       </c>
       <c r="U36" t="n">
         <v>225.8900351920932</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>31.37148968907253</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.6135482943226</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>256.0096435662081</v>
       </c>
       <c r="V37" t="n">
-        <v>133.1830758469064</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,16 +3506,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>31.98175083258574</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.8440386283136</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>58.23912399185232</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>175.7799687028017</v>
       </c>
       <c r="T38" t="n">
-        <v>216.7103951870705</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2289569968908</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>74.48184196199389</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3585,7 +3585,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>76.14800985796305</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>51.70006355208864</v>
       </c>
       <c r="S39" t="n">
-        <v>137.5892406550049</v>
+        <v>157.1862328095917</v>
       </c>
       <c r="T39" t="n">
         <v>197.0188759693406</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.60939217598674</v>
+        <v>133.1830758469058</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2833390599567</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2853856434419</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.7103951870705</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>236.5892793340305</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.5630444522099</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>62.52509433669675</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>29.8503558537638</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,13 +3876,13 @@
         <v>225.8900351920932</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776589</v>
+        <v>186.1718141901508</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>147.8726902675476</v>
       </c>
       <c r="S43" t="n">
-        <v>99.12640577095475</v>
+        <v>212.6135482943226</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>66.34483765856947</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.7103951870705</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
-        <v>236.5892793340304</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>26.98580820205295</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5630444522099</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>51.70006355208864</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>157.1862328095917</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>124.6561345161905</v>
       </c>
     </row>
     <row r="46">
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>123.2071679004946</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>135.7732247714497</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V46" t="n">
-        <v>241.0142888776589</v>
+        <v>178.6917853058382</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C2" t="n">
-        <v>82.32787816303323</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>569.2254314512334</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0774898247174</v>
+        <v>784.9134158635422</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>784.9134158635422</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>784.9134158635422</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
     </row>
     <row r="4">
@@ -4477,10 +4477,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4592,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178.5185981156682</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4653,13 +4653,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>837.579173730255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>837.579173730255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>837.579173730255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>594.130397086155</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>386.2788968806221</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y6" t="n">
-        <v>178.5185981156682</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="7">
@@ -4741,13 +4741,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4847,7 +4847,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>571.6739692052849</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>412.4365141998294</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>265.9019562267144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>127.17113080933</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4890,43 +4890,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4951,16 +4951,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>477.1596022224361</v>
+        <v>484.2254569527442</v>
       </c>
       <c r="C11" t="n">
-        <v>477.1596022224361</v>
+        <v>484.2254569527442</v>
       </c>
       <c r="D11" t="n">
-        <v>477.1596022224361</v>
+        <v>240.7766803086441</v>
       </c>
       <c r="E11" t="n">
-        <v>477.1596022224361</v>
+        <v>240.7766803086441</v>
       </c>
       <c r="F11" t="n">
-        <v>233.7108255783361</v>
+        <v>175.0785175912453</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>175.0785175912453</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>175.0785175912453</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>130.018538848054</v>
       </c>
       <c r="K11" t="n">
-        <v>46.09946536889805</v>
+        <v>368.6226848369365</v>
       </c>
       <c r="L11" t="n">
-        <v>284.7036113577805</v>
+        <v>368.6226848369365</v>
       </c>
       <c r="M11" t="n">
-        <v>310.23425376426</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N11" t="n">
-        <v>340.7918170351742</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O11" t="n">
-        <v>579.3959630240566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P11" t="n">
-        <v>818.0001090129391</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>905.2297575390683</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>727.6742335968443</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>727.6742335968443</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>727.6742335968443</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>727.6742335968443</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>727.6742335968443</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>727.6742335968443</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>484.2254569527442</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E12" t="n">
         <v>19.28114311021272</v>
@@ -5121,19 +5121,19 @@
         <v>91.5421977015604</v>
       </c>
       <c r="K12" t="n">
-        <v>330.1463436904428</v>
+        <v>91.5421977015604</v>
       </c>
       <c r="L12" t="n">
-        <v>360.744738157975</v>
+        <v>122.1405921690926</v>
       </c>
       <c r="M12" t="n">
-        <v>415.8084894408234</v>
+        <v>360.7447381579751</v>
       </c>
       <c r="N12" t="n">
-        <v>486.7382592885705</v>
+        <v>514.7609736870378</v>
       </c>
       <c r="O12" t="n">
-        <v>725.3424052774529</v>
+        <v>557.4280606437061</v>
       </c>
       <c r="P12" t="n">
         <v>796.0322066325886</v>
@@ -5151,19 +5151,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8854027913501</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>500.7332945596074</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2845179155073</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>49.43301770997448</v>
+        <v>554.4942339006902</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>222.4340934449628</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="C13" t="n">
-        <v>188.3080696307514</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="D13" t="n">
-        <v>188.3080696307514</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="E13" t="n">
-        <v>188.3080696307514</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="F13" t="n">
-        <v>188.3080696307514</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>361.98971520065</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>204.0001655315804</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>66.85549404526762</v>
       </c>
       <c r="J13" t="n">
         <v>19.28114311021272</v>
@@ -5239,10 +5239,10 @@
         <v>671.2162234865102</v>
       </c>
       <c r="X13" t="n">
-        <v>443.2266725884929</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4340934449628</v>
+        <v>531.0166417211888</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5282,46 +5282,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L14" t="n">
-        <v>257.8852890990952</v>
+        <v>76.65702863981218</v>
       </c>
       <c r="M14" t="n">
-        <v>496.4894350879777</v>
+        <v>102.1876710462917</v>
       </c>
       <c r="N14" t="n">
-        <v>527.0469983588919</v>
+        <v>340.7918170351742</v>
       </c>
       <c r="O14" t="n">
-        <v>765.6511443477743</v>
+        <v>579.3959630240566</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>818.0001090129391</v>
       </c>
       <c r="Q14" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>905.2297575390683</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>905.2297575390683</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>686.3303684612192</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>442.8815918171192</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>199.4328151730191</v>
       </c>
       <c r="W14" t="n">
-        <v>720.6083788665362</v>
+        <v>199.4328151730191</v>
       </c>
       <c r="X14" t="n">
-        <v>720.6083788665362</v>
+        <v>199.4328151730191</v>
       </c>
       <c r="Y14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>711.5972559773198</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>537.1442266961928</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>388.2098170349416</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>228.9723620294861</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>82.43780405637105</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>82.43780405637105</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>82.43780405637105</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>91.5421977015604</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>330.1463436904428</v>
       </c>
       <c r="L15" t="n">
-        <v>257.8852890990952</v>
+        <v>360.744738157975</v>
       </c>
       <c r="M15" t="n">
-        <v>496.4894350879777</v>
+        <v>471.5872581596785</v>
       </c>
       <c r="N15" t="n">
-        <v>735.0935810768601</v>
+        <v>542.5170280074257</v>
       </c>
       <c r="O15" t="n">
-        <v>777.7606680335284</v>
+        <v>781.1211739963081</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>796.0322066325886</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5385,22 +5385,22 @@
         <v>911.8348690943851</v>
       </c>
       <c r="T15" t="n">
-        <v>712.8259034687885</v>
+        <v>911.8348690943851</v>
       </c>
       <c r="U15" t="n">
-        <v>712.8259034687885</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V15" t="n">
-        <v>712.8259034687885</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W15" t="n">
-        <v>712.8259034687885</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X15" t="n">
-        <v>712.8259034687885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>712.8259034687885</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="C16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="D16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="E16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="F16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="G16" t="n">
-        <v>47.97624592686185</v>
+        <v>361.98971520065</v>
       </c>
       <c r="H16" t="n">
-        <v>47.97624592686185</v>
+        <v>204.0001655315804</v>
       </c>
       <c r="I16" t="n">
-        <v>47.97624592686185</v>
+        <v>66.85549404526762</v>
       </c>
       <c r="J16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5455,31 @@
         <v>671.2162234865102</v>
       </c>
       <c r="Q16" t="n">
-        <v>639.5278500632046</v>
+        <v>671.2162234865102</v>
       </c>
       <c r="R16" t="n">
-        <v>490.161496257601</v>
+        <v>671.2162234865102</v>
       </c>
       <c r="S16" t="n">
-        <v>275.4003363643459</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="T16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="U16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="V16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="W16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="X16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.97624592686185</v>
+        <v>531.0166417211888</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1802.514522174197</v>
+        <v>208.3563582760595</v>
       </c>
       <c r="C17" t="n">
-        <v>1691.210256837437</v>
+        <v>208.3563582760595</v>
       </c>
       <c r="D17" t="n">
-        <v>1332.944558230686</v>
+        <v>208.3563582760595</v>
       </c>
       <c r="E17" t="n">
-        <v>947.1563056324419</v>
+        <v>208.3563582760595</v>
       </c>
       <c r="F17" t="n">
-        <v>536.1704008428343</v>
+        <v>208.3563582760595</v>
       </c>
       <c r="G17" t="n">
-        <v>536.1704008428343</v>
+        <v>208.3563582760595</v>
       </c>
       <c r="H17" t="n">
         <v>208.3563582760595</v>
@@ -5513,13 +5513,13 @@
         <v>52.55898379502685</v>
       </c>
       <c r="J17" t="n">
-        <v>163.2963795328682</v>
+        <v>163.2963795328678</v>
       </c>
       <c r="K17" t="n">
-        <v>450.0078342830583</v>
+        <v>450.0078342830579</v>
       </c>
       <c r="L17" t="n">
-        <v>857.9753742039707</v>
+        <v>857.9753742039704</v>
       </c>
       <c r="M17" t="n">
         <v>1328.524414768354</v>
@@ -5534,31 +5534,31 @@
         <v>2481.892143253645</v>
       </c>
       <c r="Q17" t="n">
-        <v>2627.949189751343</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="R17" t="n">
-        <v>2627.949189751343</v>
+        <v>2569.121791779774</v>
       </c>
       <c r="S17" t="n">
-        <v>2627.949189751343</v>
+        <v>2391.56626783755</v>
       </c>
       <c r="T17" t="n">
-        <v>2409.049800673494</v>
+        <v>2172.666878759701</v>
       </c>
       <c r="U17" t="n">
-        <v>2155.283177444311</v>
+        <v>1918.900255530519</v>
       </c>
       <c r="V17" t="n">
-        <v>2155.283177444311</v>
+        <v>1587.837368186948</v>
       </c>
       <c r="W17" t="n">
-        <v>1802.514522174197</v>
+        <v>1235.068712916834</v>
       </c>
       <c r="X17" t="n">
-        <v>1802.514522174197</v>
+        <v>861.602954655754</v>
       </c>
       <c r="Y17" t="n">
-        <v>1802.514522174197</v>
+        <v>471.4636226799423</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.5556115047686</v>
+        <v>988.5728394913093</v>
       </c>
       <c r="C18" t="n">
-        <v>742.1025822236417</v>
+        <v>814.1198102101823</v>
       </c>
       <c r="D18" t="n">
-        <v>593.1681725623904</v>
+        <v>665.1854005489311</v>
       </c>
       <c r="E18" t="n">
-        <v>433.9307175569349</v>
+        <v>505.9479455434755</v>
       </c>
       <c r="F18" t="n">
-        <v>287.3961595838199</v>
+        <v>359.4133875703604</v>
       </c>
       <c r="G18" t="n">
-        <v>149.4536904401735</v>
+        <v>221.470918426714</v>
       </c>
       <c r="H18" t="n">
-        <v>52.55898379502685</v>
+        <v>115.7156447411852</v>
       </c>
       <c r="I18" t="n">
         <v>52.55898379502685</v>
       </c>
       <c r="J18" t="n">
-        <v>52.55898379502685</v>
+        <v>124.8200383863745</v>
       </c>
       <c r="K18" t="n">
-        <v>302.6854787778861</v>
+        <v>374.9465333692337</v>
       </c>
       <c r="L18" t="n">
-        <v>700.4158150958428</v>
+        <v>772.6768696871904</v>
       </c>
       <c r="M18" t="n">
-        <v>1216.527579491191</v>
+        <v>1288.788634082539</v>
       </c>
       <c r="N18" t="n">
-        <v>1762.006299939056</v>
+        <v>1834.267354530404</v>
       </c>
       <c r="O18" t="n">
-        <v>2194.597082979687</v>
+        <v>2266.858137571034</v>
       </c>
       <c r="P18" t="n">
-        <v>2524.786256569505</v>
+        <v>2597.047311160853</v>
       </c>
       <c r="Q18" t="n">
-        <v>2627.949189751343</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="R18" t="n">
         <v>2575.726903335091</v>
@@ -5622,10 +5622,10 @@
         <v>2416.95293080015</v>
       </c>
       <c r="T18" t="n">
-        <v>2217.943965174554</v>
+        <v>2217.943965174553</v>
       </c>
       <c r="U18" t="n">
-        <v>1989.772212455268</v>
+        <v>1989.772212455267</v>
       </c>
       <c r="V18" t="n">
         <v>1754.620104223525</v>
@@ -5634,10 +5634,10 @@
         <v>1500.382747495323</v>
       </c>
       <c r="X18" t="n">
-        <v>1292.531247289791</v>
+        <v>1292.53124728979</v>
       </c>
       <c r="Y18" t="n">
-        <v>1084.770948524837</v>
+        <v>1156.788176511377</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.9018041748114</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="C19" t="n">
-        <v>125.9018041748114</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="D19" t="n">
-        <v>125.9018041748114</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="E19" t="n">
         <v>52.55898379502685</v>
@@ -5695,28 +5695,28 @@
         <v>704.4940641713243</v>
       </c>
       <c r="R19" t="n">
-        <v>704.4940641713243</v>
+        <v>555.1277103657208</v>
       </c>
       <c r="S19" t="n">
-        <v>704.4940641713243</v>
+        <v>555.1277103657208</v>
       </c>
       <c r="T19" t="n">
-        <v>704.4940641713243</v>
+        <v>555.1277103657208</v>
       </c>
       <c r="U19" t="n">
-        <v>415.3189742117721</v>
+        <v>555.1277103657208</v>
       </c>
       <c r="V19" t="n">
-        <v>415.3189742117721</v>
+        <v>555.1277103657208</v>
       </c>
       <c r="W19" t="n">
-        <v>125.9018041748114</v>
+        <v>265.7105403287601</v>
       </c>
       <c r="X19" t="n">
-        <v>125.9018041748114</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.9018041748114</v>
+        <v>52.55898379502685</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>854.7844538969734</v>
+        <v>1512.79549996625</v>
       </c>
       <c r="C20" t="n">
-        <v>854.7844538969734</v>
+        <v>1267.35742262562</v>
       </c>
       <c r="D20" t="n">
-        <v>854.7844538969734</v>
+        <v>1267.35742262562</v>
       </c>
       <c r="E20" t="n">
-        <v>854.7844538969734</v>
+        <v>881.5691700273755</v>
       </c>
       <c r="F20" t="n">
-        <v>443.7985491073659</v>
+        <v>470.5832652377679</v>
       </c>
       <c r="G20" t="n">
         <v>52.55898379502685</v>
@@ -5750,16 +5750,16 @@
         <v>52.55898379502685</v>
       </c>
       <c r="J20" t="n">
-        <v>163.2963795328682</v>
+        <v>163.2963795328678</v>
       </c>
       <c r="K20" t="n">
-        <v>450.0078342830583</v>
+        <v>450.0078342830579</v>
       </c>
       <c r="L20" t="n">
-        <v>857.9753742039711</v>
+        <v>857.9753742039704</v>
       </c>
       <c r="M20" t="n">
-        <v>1328.524414768355</v>
+        <v>1328.524414768354</v>
       </c>
       <c r="N20" t="n">
         <v>1792.055433207133</v>
@@ -5771,31 +5771,31 @@
         <v>2481.892143253645</v>
       </c>
       <c r="Q20" t="n">
-        <v>2627.949189751343</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="R20" t="n">
-        <v>2569.121791779774</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="S20" t="n">
-        <v>2569.121791779774</v>
+        <v>2450.393665809118</v>
       </c>
       <c r="T20" t="n">
-        <v>2569.121791779774</v>
+        <v>2450.393665809118</v>
       </c>
       <c r="U20" t="n">
-        <v>2315.355168550592</v>
+        <v>2196.627042579935</v>
       </c>
       <c r="V20" t="n">
-        <v>1984.292281207021</v>
+        <v>1865.564155236365</v>
       </c>
       <c r="W20" t="n">
-        <v>1631.523625936907</v>
+        <v>1512.79549996625</v>
       </c>
       <c r="X20" t="n">
-        <v>1631.523625936907</v>
+        <v>1512.79549996625</v>
       </c>
       <c r="Y20" t="n">
-        <v>1241.384293961095</v>
+        <v>1512.79549996625</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.5728394913093</v>
+        <v>916.5556115047682</v>
       </c>
       <c r="C21" t="n">
-        <v>814.1198102101823</v>
+        <v>742.1025822236412</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1854005489311</v>
+        <v>593.1681725623899</v>
       </c>
       <c r="E21" t="n">
-        <v>505.9479455434755</v>
+        <v>433.9307175569344</v>
       </c>
       <c r="F21" t="n">
         <v>359.4133875703604</v>
@@ -5829,52 +5829,52 @@
         <v>52.55898379502685</v>
       </c>
       <c r="J21" t="n">
-        <v>52.55898379502685</v>
+        <v>124.8200383863745</v>
       </c>
       <c r="K21" t="n">
-        <v>302.6854787778861</v>
+        <v>374.9465333692337</v>
       </c>
       <c r="L21" t="n">
-        <v>700.4158150958428</v>
+        <v>772.6768696871904</v>
       </c>
       <c r="M21" t="n">
-        <v>1216.527579491191</v>
+        <v>1288.788634082539</v>
       </c>
       <c r="N21" t="n">
-        <v>1762.006299939056</v>
+        <v>1834.267354530404</v>
       </c>
       <c r="O21" t="n">
-        <v>2194.597082979687</v>
+        <v>2129.735067283476</v>
       </c>
       <c r="P21" t="n">
-        <v>2524.786256569505</v>
+        <v>2459.924240873294</v>
       </c>
       <c r="Q21" t="n">
-        <v>2627.949189751343</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="R21" t="n">
-        <v>2627.949189751343</v>
+        <v>2575.726903335091</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.970158786691</v>
+        <v>2416.95293080015</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.961193161094</v>
+        <v>2217.943965174553</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.789440441808</v>
+        <v>1989.772212455267</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.637332210066</v>
+        <v>1754.620104223525</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.399975481864</v>
+        <v>1500.382747495323</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.548475276331</v>
+        <v>1292.53124728979</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.788176511377</v>
+        <v>1084.770948524836</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1976.014109375044</v>
+        <v>449.8095759654375</v>
       </c>
       <c r="C22" t="n">
-        <v>1976.014109375044</v>
+        <v>368.475857813476</v>
       </c>
       <c r="D22" t="n">
-        <v>1976.014109375044</v>
+        <v>368.475857813476</v>
       </c>
       <c r="E22" t="n">
-        <v>1976.014109375044</v>
+        <v>368.475857813476</v>
       </c>
       <c r="F22" t="n">
-        <v>1976.014109375044</v>
+        <v>221.5859103155656</v>
       </c>
       <c r="G22" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="H22" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="I22" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="J22" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="K22" t="n">
-        <v>2029.227440768908</v>
+        <v>105.7723151888906</v>
       </c>
       <c r="L22" t="n">
-        <v>2152.848618847242</v>
+        <v>229.3934932672242</v>
       </c>
       <c r="M22" t="n">
-        <v>2293.578941257192</v>
+        <v>370.1238156771736</v>
       </c>
       <c r="N22" t="n">
-        <v>2436.397627569822</v>
+        <v>512.9425019898044</v>
       </c>
       <c r="O22" t="n">
-        <v>2552.297504739271</v>
+        <v>628.8423791592525</v>
       </c>
       <c r="P22" t="n">
-        <v>2627.949189751343</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="Q22" t="n">
-        <v>2627.949189751343</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="R22" t="n">
-        <v>2478.582835945739</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.821676052484</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="T22" t="n">
-        <v>2036.397585615</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="U22" t="n">
-        <v>1976.014109375044</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="V22" t="n">
-        <v>1976.014109375044</v>
+        <v>449.8095759654375</v>
       </c>
       <c r="W22" t="n">
-        <v>1976.014109375044</v>
+        <v>449.8095759654375</v>
       </c>
       <c r="X22" t="n">
-        <v>1976.014109375044</v>
+        <v>449.8095759654375</v>
       </c>
       <c r="Y22" t="n">
-        <v>1976.014109375044</v>
+        <v>449.8095759654375</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1477.744259450329</v>
+        <v>1953.437163799145</v>
       </c>
       <c r="C23" t="n">
-        <v>1108.781742509918</v>
+        <v>1953.437163799145</v>
       </c>
       <c r="D23" t="n">
-        <v>750.5160439031672</v>
+        <v>1595.171465192395</v>
       </c>
       <c r="E23" t="n">
-        <v>750.5160439031672</v>
+        <v>1209.38321259415</v>
       </c>
       <c r="F23" t="n">
-        <v>339.5301391135596</v>
+        <v>798.3973078045427</v>
       </c>
       <c r="G23" t="n">
-        <v>52.55898379502685</v>
+        <v>380.3730263618016</v>
       </c>
       <c r="H23" t="n">
         <v>52.55898379502685</v>
@@ -5987,10 +5987,10 @@
         <v>52.55898379502685</v>
       </c>
       <c r="J23" t="n">
-        <v>163.2963795328682</v>
+        <v>163.2963795328678</v>
       </c>
       <c r="K23" t="n">
-        <v>450.0078342830583</v>
+        <v>450.0078342830584</v>
       </c>
       <c r="L23" t="n">
         <v>857.9753742039711</v>
@@ -6011,28 +6011,28 @@
         <v>2627.949189751343</v>
       </c>
       <c r="R23" t="n">
-        <v>2627.949189751343</v>
+        <v>2569.121791779774</v>
       </c>
       <c r="S23" t="n">
-        <v>2627.949189751343</v>
+        <v>2569.121791779774</v>
       </c>
       <c r="T23" t="n">
-        <v>2627.949189751343</v>
+        <v>2350.222402701926</v>
       </c>
       <c r="U23" t="n">
-        <v>2627.949189751343</v>
+        <v>2340.037003863267</v>
       </c>
       <c r="V23" t="n">
-        <v>2627.949189751343</v>
+        <v>2340.037003863267</v>
       </c>
       <c r="W23" t="n">
-        <v>2627.949189751343</v>
+        <v>2340.037003863267</v>
       </c>
       <c r="X23" t="n">
-        <v>2254.483431490263</v>
+        <v>2340.037003863267</v>
       </c>
       <c r="Y23" t="n">
-        <v>1864.344099514451</v>
+        <v>2340.037003863267</v>
       </c>
     </row>
     <row r="24">
@@ -6048,13 +6048,13 @@
         <v>742.1025822236417</v>
       </c>
       <c r="D24" t="n">
-        <v>593.1681725623904</v>
+        <v>665.1854005489311</v>
       </c>
       <c r="E24" t="n">
-        <v>433.9307175569349</v>
+        <v>505.9479455434755</v>
       </c>
       <c r="F24" t="n">
-        <v>287.3961595838199</v>
+        <v>359.4133875703604</v>
       </c>
       <c r="G24" t="n">
         <v>221.470918426714</v>
@@ -6078,13 +6078,13 @@
         <v>1288.788634082539</v>
       </c>
       <c r="N24" t="n">
-        <v>1697.144284242846</v>
+        <v>1834.267354530404</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.735067283476</v>
+        <v>2266.858137571034</v>
       </c>
       <c r="P24" t="n">
-        <v>2459.924240873295</v>
+        <v>2597.047311160853</v>
       </c>
       <c r="Q24" t="n">
         <v>2627.949189751343</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>194.2843149908336</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="C25" t="n">
-        <v>194.2843149908336</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="D25" t="n">
-        <v>194.2843149908336</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="E25" t="n">
-        <v>194.2843149908336</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="F25" t="n">
-        <v>194.2843149908336</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="G25" t="n">
-        <v>194.2843149908336</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="H25" t="n">
         <v>52.55898379502685</v>
@@ -6175,22 +6175,22 @@
         <v>704.4940641713243</v>
       </c>
       <c r="T25" t="n">
-        <v>704.4940641713243</v>
+        <v>569.9657047300047</v>
       </c>
       <c r="U25" t="n">
-        <v>704.4940641713243</v>
+        <v>569.9657047300047</v>
       </c>
       <c r="V25" t="n">
-        <v>704.4940641713243</v>
+        <v>569.9657047300047</v>
       </c>
       <c r="W25" t="n">
-        <v>415.0768941343637</v>
+        <v>280.5485346930442</v>
       </c>
       <c r="X25" t="n">
-        <v>415.0768941343637</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.2843149908336</v>
+        <v>52.55898379502685</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>728.5206911601426</v>
+        <v>1214.371609925868</v>
       </c>
       <c r="C26" t="n">
-        <v>359.5581742197309</v>
+        <v>845.4090929854565</v>
       </c>
       <c r="D26" t="n">
-        <v>359.5581742197309</v>
+        <v>487.143394378706</v>
       </c>
       <c r="E26" t="n">
-        <v>52.55898379502685</v>
+        <v>487.143394378706</v>
       </c>
       <c r="F26" t="n">
-        <v>52.55898379502685</v>
+        <v>470.5832652377679</v>
       </c>
       <c r="G26" t="n">
         <v>52.55898379502685</v>
@@ -6224,10 +6224,10 @@
         <v>52.55898379502685</v>
       </c>
       <c r="J26" t="n">
-        <v>163.2963795328678</v>
+        <v>163.2963795328682</v>
       </c>
       <c r="K26" t="n">
-        <v>450.0078342830584</v>
+        <v>450.0078342830583</v>
       </c>
       <c r="L26" t="n">
         <v>857.9753742039711</v>
@@ -6248,28 +6248,28 @@
         <v>2627.949189751343</v>
       </c>
       <c r="R26" t="n">
-        <v>2627.949189751343</v>
+        <v>2569.121791779774</v>
       </c>
       <c r="S26" t="n">
-        <v>2450.393665809119</v>
+        <v>2391.56626783755</v>
       </c>
       <c r="T26" t="n">
-        <v>2231.49427673127</v>
+        <v>2172.666878759701</v>
       </c>
       <c r="U26" t="n">
-        <v>2231.49427673127</v>
+        <v>1918.900255530519</v>
       </c>
       <c r="V26" t="n">
-        <v>2231.49427673127</v>
+        <v>1587.837368186948</v>
       </c>
       <c r="W26" t="n">
-        <v>1878.725621461156</v>
+        <v>1587.837368186948</v>
       </c>
       <c r="X26" t="n">
-        <v>1505.259863200076</v>
+        <v>1214.371609925868</v>
       </c>
       <c r="Y26" t="n">
-        <v>1115.120531224264</v>
+        <v>1214.371609925868</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>916.5556115047686</v>
+        <v>988.5728394913093</v>
       </c>
       <c r="C27" t="n">
-        <v>742.1025822236417</v>
+        <v>814.1198102101823</v>
       </c>
       <c r="D27" t="n">
-        <v>593.1681725623904</v>
+        <v>665.1854005489311</v>
       </c>
       <c r="E27" t="n">
-        <v>433.9307175569349</v>
+        <v>505.9479455434755</v>
       </c>
       <c r="F27" t="n">
-        <v>287.3961595838199</v>
+        <v>359.4133875703604</v>
       </c>
       <c r="G27" t="n">
-        <v>158.3142574805557</v>
+        <v>221.470918426714</v>
       </c>
       <c r="H27" t="n">
-        <v>52.55898379502685</v>
+        <v>115.7156447411852</v>
       </c>
       <c r="I27" t="n">
         <v>52.55898379502685</v>
@@ -6315,7 +6315,7 @@
         <v>1288.788634082539</v>
       </c>
       <c r="N27" t="n">
-        <v>1697.144284242846</v>
+        <v>1834.267354530404</v>
       </c>
       <c r="O27" t="n">
         <v>2129.735067283476</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="C28" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="D28" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="E28" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="F28" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="G28" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="H28" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="I28" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="J28" t="n">
-        <v>1976.014109375044</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="K28" t="n">
-        <v>2029.227440768908</v>
+        <v>105.7723151888906</v>
       </c>
       <c r="L28" t="n">
-        <v>2152.848618847242</v>
+        <v>229.3934932672242</v>
       </c>
       <c r="M28" t="n">
-        <v>2293.578941257192</v>
+        <v>370.1238156771736</v>
       </c>
       <c r="N28" t="n">
-        <v>2436.397627569822</v>
+        <v>512.9425019898044</v>
       </c>
       <c r="O28" t="n">
-        <v>2552.297504739271</v>
+        <v>628.8423791592525</v>
       </c>
       <c r="P28" t="n">
-        <v>2627.949189751343</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="Q28" t="n">
-        <v>2627.949189751343</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="R28" t="n">
-        <v>2627.949189751343</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="S28" t="n">
-        <v>2627.949189751343</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="T28" t="n">
-        <v>2554.606369371557</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="U28" t="n">
-        <v>2265.431279412005</v>
+        <v>704.4940641713243</v>
       </c>
       <c r="V28" t="n">
-        <v>2265.431279412005</v>
+        <v>449.8095759654375</v>
       </c>
       <c r="W28" t="n">
-        <v>1976.014109375044</v>
+        <v>449.8095759654375</v>
       </c>
       <c r="X28" t="n">
-        <v>1976.014109375044</v>
+        <v>449.8095759654375</v>
       </c>
       <c r="Y28" t="n">
-        <v>1976.014109375044</v>
+        <v>229.0169968219074</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1267.35742262562</v>
+        <v>1087.85397413519</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.35742262562</v>
+        <v>718.8914571947782</v>
       </c>
       <c r="D29" t="n">
-        <v>1267.35742262562</v>
+        <v>718.8914571947782</v>
       </c>
       <c r="E29" t="n">
-        <v>881.5691700273755</v>
+        <v>333.103204596534</v>
       </c>
       <c r="F29" t="n">
-        <v>470.5832652377679</v>
+        <v>333.103204596534</v>
       </c>
       <c r="G29" t="n">
-        <v>52.55898379502685</v>
+        <v>333.103204596534</v>
       </c>
       <c r="H29" t="n">
         <v>52.55898379502685</v>
@@ -6461,13 +6461,13 @@
         <v>52.55898379502685</v>
       </c>
       <c r="J29" t="n">
-        <v>163.2963795328681</v>
+        <v>163.2963795328678</v>
       </c>
       <c r="K29" t="n">
-        <v>450.0078342830582</v>
+        <v>450.0078342830579</v>
       </c>
       <c r="L29" t="n">
-        <v>857.9753742039707</v>
+        <v>857.9753742039704</v>
       </c>
       <c r="M29" t="n">
         <v>1328.524414768354</v>
@@ -6485,28 +6485,28 @@
         <v>2627.949189751342</v>
       </c>
       <c r="R29" t="n">
-        <v>2627.949189751342</v>
+        <v>2569.121791779774</v>
       </c>
       <c r="S29" t="n">
-        <v>2627.949189751342</v>
+        <v>2569.121791779774</v>
       </c>
       <c r="T29" t="n">
-        <v>2627.949189751342</v>
+        <v>2569.121791779774</v>
       </c>
       <c r="U29" t="n">
-        <v>2627.949189751342</v>
+        <v>2569.121791779774</v>
       </c>
       <c r="V29" t="n">
-        <v>2627.949189751342</v>
+        <v>2238.058904436203</v>
       </c>
       <c r="W29" t="n">
-        <v>2417.562352926633</v>
+        <v>2238.058904436203</v>
       </c>
       <c r="X29" t="n">
-        <v>2044.096594665553</v>
+        <v>1864.593146175123</v>
       </c>
       <c r="Y29" t="n">
-        <v>1653.957262689742</v>
+        <v>1474.453814199312</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.5728394913093</v>
+        <v>925.416178545151</v>
       </c>
       <c r="C30" t="n">
-        <v>814.1198102101823</v>
+        <v>750.963149264024</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1854005489311</v>
+        <v>602.0287396027727</v>
       </c>
       <c r="E30" t="n">
-        <v>505.9479455434755</v>
+        <v>442.7912845973171</v>
       </c>
       <c r="F30" t="n">
-        <v>359.4133875703604</v>
+        <v>296.2567266242021</v>
       </c>
       <c r="G30" t="n">
-        <v>221.470918426714</v>
+        <v>158.3142574805557</v>
       </c>
       <c r="H30" t="n">
-        <v>115.7156447411852</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="I30" t="n">
         <v>52.55898379502685</v>
       </c>
       <c r="J30" t="n">
-        <v>124.8200383863745</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="K30" t="n">
-        <v>374.9465333692337</v>
+        <v>237.8234630816757</v>
       </c>
       <c r="L30" t="n">
-        <v>772.6768696871904</v>
+        <v>635.5537993996325</v>
       </c>
       <c r="M30" t="n">
-        <v>1288.788634082539</v>
+        <v>1151.665563794981</v>
       </c>
       <c r="N30" t="n">
         <v>1697.144284242846</v>
@@ -6564,28 +6564,28 @@
         <v>2627.949189751342</v>
       </c>
       <c r="R30" t="n">
-        <v>2627.949189751342</v>
+        <v>2575.726903335091</v>
       </c>
       <c r="S30" t="n">
-        <v>2469.175217216401</v>
+        <v>2416.95293080015</v>
       </c>
       <c r="T30" t="n">
-        <v>2270.166251590805</v>
+        <v>2226.804532214936</v>
       </c>
       <c r="U30" t="n">
-        <v>2041.994498871519</v>
+        <v>1998.63277949565</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.637332210066</v>
+        <v>1763.480671263907</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.399975481864</v>
+        <v>1509.243314535706</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.548475276331</v>
+        <v>1301.391814330173</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.788176511377</v>
+        <v>1093.631515565219</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.55898379502685</v>
+        <v>296.0152465049311</v>
       </c>
       <c r="C31" t="n">
-        <v>52.55898379502685</v>
+        <v>296.0152465049311</v>
       </c>
       <c r="D31" t="n">
-        <v>52.55898379502685</v>
+        <v>296.0152465049311</v>
       </c>
       <c r="E31" t="n">
-        <v>52.55898379502685</v>
+        <v>148.102152922538</v>
       </c>
       <c r="F31" t="n">
-        <v>52.55898379502685</v>
+        <v>148.102152922538</v>
       </c>
       <c r="G31" t="n">
-        <v>52.55898379502685</v>
+        <v>148.102152922538</v>
       </c>
       <c r="H31" t="n">
-        <v>52.55898379502685</v>
+        <v>148.102152922538</v>
       </c>
       <c r="I31" t="n">
         <v>52.55898379502685</v>
@@ -6640,31 +6640,31 @@
         <v>704.4940641713243</v>
       </c>
       <c r="Q31" t="n">
-        <v>704.4940641713243</v>
+        <v>672.8056907480187</v>
       </c>
       <c r="R31" t="n">
-        <v>704.4940641713243</v>
+        <v>523.4393369424151</v>
       </c>
       <c r="S31" t="n">
-        <v>704.4940641713243</v>
+        <v>523.4393369424151</v>
       </c>
       <c r="T31" t="n">
-        <v>704.4940641713243</v>
+        <v>296.0152465049311</v>
       </c>
       <c r="U31" t="n">
-        <v>415.3189742117721</v>
+        <v>296.0152465049311</v>
       </c>
       <c r="V31" t="n">
-        <v>341.9761538319875</v>
+        <v>296.0152465049311</v>
       </c>
       <c r="W31" t="n">
-        <v>52.55898379502685</v>
+        <v>296.0152465049311</v>
       </c>
       <c r="X31" t="n">
-        <v>52.55898379502685</v>
+        <v>296.0152465049311</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.55898379502685</v>
+        <v>296.0152465049311</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1293.896110888402</v>
+        <v>1218.29565812329</v>
       </c>
       <c r="C32" t="n">
-        <v>1156.663006411293</v>
+        <v>849.3331411828786</v>
       </c>
       <c r="D32" t="n">
-        <v>798.3973078045427</v>
+        <v>849.3331411828786</v>
       </c>
       <c r="E32" t="n">
-        <v>798.3973078045427</v>
+        <v>463.5448885846344</v>
       </c>
       <c r="F32" t="n">
-        <v>798.3973078045427</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="G32" t="n">
-        <v>380.3730263618016</v>
+        <v>52.55898379502685</v>
       </c>
       <c r="H32" t="n">
         <v>52.55898379502685</v>
@@ -6728,22 +6728,22 @@
         <v>2450.393665809118</v>
       </c>
       <c r="T32" t="n">
-        <v>2231.494276731269</v>
+        <v>2450.393665809118</v>
       </c>
       <c r="U32" t="n">
-        <v>1977.727653502086</v>
+        <v>2196.627042579935</v>
       </c>
       <c r="V32" t="n">
-        <v>1646.664766158516</v>
+        <v>2196.627042579935</v>
       </c>
       <c r="W32" t="n">
-        <v>1293.896110888402</v>
+        <v>1995.034830163224</v>
       </c>
       <c r="X32" t="n">
-        <v>1293.896110888402</v>
+        <v>1995.034830163224</v>
       </c>
       <c r="Y32" t="n">
-        <v>1293.896110888402</v>
+        <v>1604.895498187412</v>
       </c>
     </row>
     <row r="33">
@@ -6765,13 +6765,13 @@
         <v>433.9307175569344</v>
       </c>
       <c r="F33" t="n">
-        <v>287.3961595838194</v>
+        <v>359.4133875703604</v>
       </c>
       <c r="G33" t="n">
-        <v>149.4536904401731</v>
+        <v>221.470918426714</v>
       </c>
       <c r="H33" t="n">
-        <v>52.55898379502685</v>
+        <v>115.7156447411852</v>
       </c>
       <c r="I33" t="n">
         <v>52.55898379502685</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.0530201975545</v>
+        <v>2017.668556331524</v>
       </c>
       <c r="C34" t="n">
-        <v>221.5859103155656</v>
+        <v>2017.668556331524</v>
       </c>
       <c r="D34" t="n">
-        <v>221.5859103155656</v>
+        <v>2017.668556331524</v>
       </c>
       <c r="E34" t="n">
-        <v>221.5859103155656</v>
+        <v>2017.668556331524</v>
       </c>
       <c r="F34" t="n">
-        <v>221.5859103155656</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="G34" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="H34" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="I34" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="J34" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="K34" t="n">
-        <v>105.7723151888906</v>
+        <v>2029.227440768909</v>
       </c>
       <c r="L34" t="n">
-        <v>229.3934932672242</v>
+        <v>2152.848618847242</v>
       </c>
       <c r="M34" t="n">
-        <v>370.1238156771736</v>
+        <v>2293.578941257192</v>
       </c>
       <c r="N34" t="n">
-        <v>512.9425019898044</v>
+        <v>2436.397627569822</v>
       </c>
       <c r="O34" t="n">
-        <v>628.8423791592525</v>
+        <v>2552.29750473927</v>
       </c>
       <c r="P34" t="n">
-        <v>704.4940641713243</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="Q34" t="n">
-        <v>704.4940641713243</v>
+        <v>2596.260816328037</v>
       </c>
       <c r="R34" t="n">
-        <v>704.4940641713243</v>
+        <v>2596.260816328037</v>
       </c>
       <c r="S34" t="n">
-        <v>704.4940641713243</v>
+        <v>2596.260816328037</v>
       </c>
       <c r="T34" t="n">
-        <v>704.4940641713243</v>
+        <v>2596.260816328037</v>
       </c>
       <c r="U34" t="n">
-        <v>704.4940641713243</v>
+        <v>2307.085726368484</v>
       </c>
       <c r="V34" t="n">
-        <v>704.4940641713243</v>
+        <v>2307.085726368484</v>
       </c>
       <c r="W34" t="n">
-        <v>704.4940641713243</v>
+        <v>2017.668556331524</v>
       </c>
       <c r="X34" t="n">
-        <v>704.4940641713243</v>
+        <v>2017.668556331524</v>
       </c>
       <c r="Y34" t="n">
-        <v>483.7014850277942</v>
+        <v>2017.668556331524</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1066.148206208646</v>
+        <v>861.602954655754</v>
       </c>
       <c r="C35" t="n">
-        <v>697.1856892682347</v>
+        <v>861.602954655754</v>
       </c>
       <c r="D35" t="n">
-        <v>338.9199906614842</v>
+        <v>503.3372560490035</v>
       </c>
       <c r="E35" t="n">
-        <v>338.9199906614842</v>
+        <v>503.3372560490035</v>
       </c>
       <c r="F35" t="n">
-        <v>338.9199906614842</v>
+        <v>503.3372560490035</v>
       </c>
       <c r="G35" t="n">
-        <v>338.9199906614842</v>
+        <v>208.3563582760595</v>
       </c>
       <c r="H35" t="n">
-        <v>52.55898379502685</v>
+        <v>208.3563582760595</v>
       </c>
       <c r="I35" t="n">
         <v>52.55898379502685</v>
       </c>
       <c r="J35" t="n">
-        <v>163.2963795328682</v>
+        <v>163.2963795328681</v>
       </c>
       <c r="K35" t="n">
         <v>450.0078342830582</v>
@@ -6962,25 +6962,25 @@
         <v>2569.121791779774</v>
       </c>
       <c r="S35" t="n">
-        <v>2569.121791779774</v>
+        <v>2391.56626783755</v>
       </c>
       <c r="T35" t="n">
-        <v>2569.121791779774</v>
+        <v>2172.666878759701</v>
       </c>
       <c r="U35" t="n">
-        <v>2569.121791779774</v>
+        <v>1918.900255530519</v>
       </c>
       <c r="V35" t="n">
-        <v>2569.121791779774</v>
+        <v>1587.837368186948</v>
       </c>
       <c r="W35" t="n">
-        <v>2216.35313650966</v>
+        <v>1235.068712916834</v>
       </c>
       <c r="X35" t="n">
-        <v>1842.88737824858</v>
+        <v>861.602954655754</v>
       </c>
       <c r="Y35" t="n">
-        <v>1452.748046272768</v>
+        <v>861.602954655754</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>916.5556115047682</v>
+        <v>988.5728394913093</v>
       </c>
       <c r="C36" t="n">
-        <v>742.1025822236412</v>
+        <v>814.1198102101823</v>
       </c>
       <c r="D36" t="n">
-        <v>593.1681725623899</v>
+        <v>665.1854005489311</v>
       </c>
       <c r="E36" t="n">
-        <v>433.9307175569344</v>
+        <v>505.9479455434755</v>
       </c>
       <c r="F36" t="n">
-        <v>287.3961595838194</v>
+        <v>359.4133875703604</v>
       </c>
       <c r="G36" t="n">
-        <v>149.4536904401731</v>
+        <v>221.470918426714</v>
       </c>
       <c r="H36" t="n">
-        <v>52.55898379502685</v>
+        <v>115.7156447411852</v>
       </c>
       <c r="I36" t="n">
         <v>52.55898379502685</v>
@@ -7044,22 +7044,22 @@
         <v>2416.95293080015</v>
       </c>
       <c r="T36" t="n">
-        <v>2217.943965174553</v>
+        <v>2289.961193161094</v>
       </c>
       <c r="U36" t="n">
-        <v>1989.772212455267</v>
+        <v>2061.789440441808</v>
       </c>
       <c r="V36" t="n">
-        <v>1754.620104223525</v>
+        <v>1826.637332210066</v>
       </c>
       <c r="W36" t="n">
-        <v>1500.382747495323</v>
+        <v>1572.399975481864</v>
       </c>
       <c r="X36" t="n">
-        <v>1292.53124728979</v>
+        <v>1364.548475276331</v>
       </c>
       <c r="Y36" t="n">
-        <v>1084.770948524836</v>
+        <v>1156.788176511377</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.55898379502685</v>
+        <v>199.4489312929372</v>
       </c>
       <c r="C37" t="n">
-        <v>52.55898379502685</v>
+        <v>199.4489312929372</v>
       </c>
       <c r="D37" t="n">
-        <v>52.55898379502685</v>
+        <v>199.4489312929372</v>
       </c>
       <c r="E37" t="n">
-        <v>52.55898379502685</v>
+        <v>199.4489312929372</v>
       </c>
       <c r="F37" t="n">
         <v>52.55898379502685</v>
@@ -7114,31 +7114,31 @@
         <v>704.4940641713243</v>
       </c>
       <c r="Q37" t="n">
-        <v>704.4940641713243</v>
+        <v>672.8056907480187</v>
       </c>
       <c r="R37" t="n">
-        <v>704.4940641713243</v>
+        <v>672.8056907480187</v>
       </c>
       <c r="S37" t="n">
-        <v>704.4940641713243</v>
+        <v>458.0445308547636</v>
       </c>
       <c r="T37" t="n">
-        <v>704.4940641713243</v>
+        <v>458.0445308547636</v>
       </c>
       <c r="U37" t="n">
-        <v>704.4940641713243</v>
+        <v>199.4489312929372</v>
       </c>
       <c r="V37" t="n">
-        <v>569.9657047300047</v>
+        <v>199.4489312929372</v>
       </c>
       <c r="W37" t="n">
-        <v>280.5485346930442</v>
+        <v>199.4489312929372</v>
       </c>
       <c r="X37" t="n">
-        <v>52.55898379502685</v>
+        <v>199.4489312929372</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.55898379502685</v>
+        <v>199.4489312929372</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>84.86378261582053</v>
+        <v>1267.35742262562</v>
       </c>
       <c r="C38" t="n">
-        <v>84.86378261582053</v>
+        <v>1267.35742262562</v>
       </c>
       <c r="D38" t="n">
-        <v>52.55898379502685</v>
+        <v>1267.35742262562</v>
       </c>
       <c r="E38" t="n">
-        <v>52.55898379502685</v>
+        <v>881.5691700273755</v>
       </c>
       <c r="F38" t="n">
-        <v>52.55898379502685</v>
+        <v>470.5832652377679</v>
       </c>
       <c r="G38" t="n">
         <v>52.55898379502685</v>
@@ -7172,7 +7172,7 @@
         <v>52.55898379502685</v>
       </c>
       <c r="J38" t="n">
-        <v>163.2963795328685</v>
+        <v>163.2963795328682</v>
       </c>
       <c r="K38" t="n">
         <v>450.0078342830585</v>
@@ -7196,28 +7196,28 @@
         <v>2627.949189751342</v>
       </c>
       <c r="R38" t="n">
-        <v>2569.121791779774</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="S38" t="n">
-        <v>2391.56626783755</v>
+        <v>2450.393665809118</v>
       </c>
       <c r="T38" t="n">
-        <v>2172.666878759701</v>
+        <v>2450.393665809118</v>
       </c>
       <c r="U38" t="n">
-        <v>1918.900255530519</v>
+        <v>2450.393665809118</v>
       </c>
       <c r="V38" t="n">
-        <v>1587.837368186948</v>
+        <v>2119.330778465547</v>
       </c>
       <c r="W38" t="n">
-        <v>1235.068712916834</v>
+        <v>2044.096594665553</v>
       </c>
       <c r="X38" t="n">
-        <v>861.602954655754</v>
+        <v>2044.096594665553</v>
       </c>
       <c r="Y38" t="n">
-        <v>471.4636226799423</v>
+        <v>1653.957262689742</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.5728394913093</v>
+        <v>916.5556115047682</v>
       </c>
       <c r="C39" t="n">
-        <v>814.1198102101823</v>
+        <v>742.1025822236412</v>
       </c>
       <c r="D39" t="n">
         <v>665.1854005489311</v>
@@ -7251,7 +7251,7 @@
         <v>52.55898379502685</v>
       </c>
       <c r="J39" t="n">
-        <v>52.55898379502685</v>
+        <v>124.8200383863745</v>
       </c>
       <c r="K39" t="n">
         <v>237.8234630816759</v>
@@ -7275,28 +7275,28 @@
         <v>2627.949189751342</v>
       </c>
       <c r="R39" t="n">
-        <v>2627.949189751342</v>
+        <v>2575.726903335091</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.970158786691</v>
+        <v>2416.95293080015</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.961193161094</v>
+        <v>2217.943965174553</v>
       </c>
       <c r="U39" t="n">
-        <v>2061.789440441808</v>
+        <v>1989.772212455267</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.637332210066</v>
+        <v>1754.620104223525</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.399975481864</v>
+        <v>1500.382747495323</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.548475276331</v>
+        <v>1292.53124728979</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.788176511377</v>
+        <v>1084.770948524836</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="C40" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="D40" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="E40" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="F40" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="G40" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="H40" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="I40" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="J40" t="n">
-        <v>52.55898379502685</v>
+        <v>1976.014109375045</v>
       </c>
       <c r="K40" t="n">
-        <v>105.7723151888906</v>
+        <v>2029.227440768909</v>
       </c>
       <c r="L40" t="n">
-        <v>229.3934932672242</v>
+        <v>2152.848618847242</v>
       </c>
       <c r="M40" t="n">
-        <v>370.1238156771736</v>
+        <v>2293.578941257192</v>
       </c>
       <c r="N40" t="n">
-        <v>512.9425019898044</v>
+        <v>2436.397627569822</v>
       </c>
       <c r="O40" t="n">
-        <v>628.8423791592525</v>
+        <v>2552.29750473927</v>
       </c>
       <c r="P40" t="n">
-        <v>704.4940641713243</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="Q40" t="n">
-        <v>704.4940641713243</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="R40" t="n">
-        <v>704.4940641713243</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="S40" t="n">
-        <v>704.4940641713243</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="T40" t="n">
-        <v>704.4940641713243</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="U40" t="n">
-        <v>415.3189742117721</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="V40" t="n">
-        <v>415.3189742117721</v>
+        <v>2627.949189751342</v>
       </c>
       <c r="W40" t="n">
-        <v>125.9018041748114</v>
+        <v>2338.532019714381</v>
       </c>
       <c r="X40" t="n">
-        <v>125.9018041748114</v>
+        <v>2110.542468816364</v>
       </c>
       <c r="Y40" t="n">
-        <v>125.9018041748114</v>
+        <v>2110.542468816364</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783359</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7409,52 +7409,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
+        <v>130.018538848054</v>
+      </c>
+      <c r="K41" t="n">
+        <v>368.6226848369364</v>
+      </c>
+      <c r="L41" t="n">
+        <v>445.7988418875947</v>
+      </c>
+      <c r="M41" t="n">
+        <v>471.3294842940742</v>
+      </c>
+      <c r="N41" t="n">
+        <v>709.9336302829566</v>
+      </c>
+      <c r="O41" t="n">
+        <v>725.4530095217535</v>
+      </c>
+      <c r="P41" t="n">
+        <v>964.057155510636</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>964.057155510636</v>
+      </c>
+      <c r="R41" t="n">
+        <v>964.057155510636</v>
+      </c>
+      <c r="S41" t="n">
+        <v>964.057155510636</v>
+      </c>
+      <c r="T41" t="n">
+        <v>745.157766432787</v>
+      </c>
+      <c r="U41" t="n">
+        <v>745.157766432787</v>
+      </c>
+      <c r="V41" t="n">
+        <v>501.7089897886869</v>
+      </c>
+      <c r="W41" t="n">
+        <v>262.7299197543127</v>
+      </c>
+      <c r="X41" t="n">
+        <v>262.7299197543127</v>
+      </c>
+      <c r="Y41" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="K41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="L41" t="n">
-        <v>257.8852890990951</v>
-      </c>
-      <c r="M41" t="n">
-        <v>283.4159315055746</v>
-      </c>
-      <c r="N41" t="n">
-        <v>486.8488635328711</v>
-      </c>
-      <c r="O41" t="n">
-        <v>725.4530095217534</v>
-      </c>
-      <c r="P41" t="n">
-        <v>964.0571555106358</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>964.0571555106358</v>
-      </c>
-      <c r="R41" t="n">
-        <v>964.0571555106358</v>
-      </c>
-      <c r="S41" t="n">
-        <v>964.0571555106358</v>
-      </c>
-      <c r="T41" t="n">
-        <v>964.0571555106358</v>
-      </c>
-      <c r="U41" t="n">
-        <v>964.0571555106358</v>
-      </c>
-      <c r="V41" t="n">
-        <v>964.0571555106358</v>
-      </c>
-      <c r="W41" t="n">
-        <v>964.0571555106358</v>
-      </c>
-      <c r="X41" t="n">
-        <v>720.6083788665358</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>720.6083788665358</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>379.6177282054729</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>379.6177282054729</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>379.6177282054729</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>220.3802732000174</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>220.3802732000174</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>82.43780405637105</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>82.43780405637105</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7494,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>257.8852890990951</v>
+        <v>49.87953757774488</v>
       </c>
       <c r="M42" t="n">
-        <v>496.4894350879774</v>
+        <v>288.4836835666273</v>
       </c>
       <c r="N42" t="n">
-        <v>567.4192049357246</v>
+        <v>527.0878295555096</v>
       </c>
       <c r="O42" t="n">
-        <v>806.0233509246069</v>
+        <v>765.6919755443921</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106358</v>
+        <v>796.0322066325884</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106358</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106358</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S42" t="n">
-        <v>933.9052809108744</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T42" t="n">
-        <v>933.9052809108744</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U42" t="n">
-        <v>705.7335281915882</v>
+        <v>735.8854027913499</v>
       </c>
       <c r="V42" t="n">
-        <v>470.5814199598455</v>
+        <v>735.8854027913499</v>
       </c>
       <c r="W42" t="n">
-        <v>227.1326433157456</v>
+        <v>547.833065225541</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>547.833065225541</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>547.833065225541</v>
       </c>
     </row>
     <row r="43">
@@ -7570,7 +7570,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>72.49447450407646</v>
+        <v>72.49447450407648</v>
       </c>
       <c r="L43" t="n">
         <v>196.1156525824101</v>
@@ -7594,25 +7594,25 @@
         <v>521.8498696809065</v>
       </c>
       <c r="S43" t="n">
-        <v>421.7221870839825</v>
+        <v>307.0887097876514</v>
       </c>
       <c r="T43" t="n">
-        <v>421.7221870839825</v>
+        <v>307.0887097876514</v>
       </c>
       <c r="U43" t="n">
-        <v>421.7221870839825</v>
+        <v>307.0887097876514</v>
       </c>
       <c r="V43" t="n">
-        <v>421.7221870839825</v>
+        <v>307.0887097876514</v>
       </c>
       <c r="W43" t="n">
-        <v>421.7221870839825</v>
+        <v>240.0737222537428</v>
       </c>
       <c r="X43" t="n">
-        <v>421.7221870839825</v>
+        <v>240.0737222537428</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.9296079404524</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D44" t="n">
         <v>19.28114311021272</v>
@@ -7646,52 +7646,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>130.018538848054</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>130.018538848054</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L44" t="n">
-        <v>130.018538848054</v>
+        <v>257.8852890990951</v>
       </c>
       <c r="M44" t="n">
-        <v>155.5491812545336</v>
+        <v>496.4894350879775</v>
       </c>
       <c r="N44" t="n">
-        <v>340.7918170351739</v>
+        <v>735.0935810768599</v>
       </c>
       <c r="O44" t="n">
-        <v>579.3959630240563</v>
+        <v>750.6129603156568</v>
       </c>
       <c r="P44" t="n">
-        <v>818.0001090129387</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106358</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106358</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106358</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T44" t="n">
-        <v>745.1577664327867</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U44" t="n">
-        <v>745.1577664327867</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984126</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984126</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543127</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543127</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>380.230019520081</v>
+        <v>627.1456091693524</v>
       </c>
       <c r="C45" t="n">
-        <v>205.776990238954</v>
+        <v>452.6925798882254</v>
       </c>
       <c r="D45" t="n">
-        <v>205.776990238954</v>
+        <v>303.7581702269741</v>
       </c>
       <c r="E45" t="n">
-        <v>46.53953523349853</v>
+        <v>303.7581702269741</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>157.2236122538591</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7725,52 +7725,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>91.54219770156038</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8852890990951</v>
+        <v>91.54219770156038</v>
       </c>
       <c r="L45" t="n">
-        <v>496.4894350879774</v>
+        <v>330.1463436904428</v>
       </c>
       <c r="M45" t="n">
-        <v>735.0935810768598</v>
+        <v>385.2100949732911</v>
       </c>
       <c r="N45" t="n">
-        <v>806.0233509246068</v>
+        <v>514.7609736870377</v>
       </c>
       <c r="O45" t="n">
-        <v>949.1461228743553</v>
+        <v>557.428060643706</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106358</v>
+        <v>796.0322066325884</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106358</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106358</v>
+        <v>911.8348690943849</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106358</v>
+        <v>753.0608965594438</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106358</v>
+        <v>753.0608965594438</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106358</v>
+        <v>753.0608965594438</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106358</v>
+        <v>753.0608965594438</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106358</v>
+        <v>753.0608965594438</v>
       </c>
       <c r="X45" t="n">
-        <v>756.2056553051029</v>
+        <v>753.0608965594438</v>
       </c>
       <c r="Y45" t="n">
-        <v>548.4453565401491</v>
+        <v>627.1456091693524</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>427.7674468424102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>427.7674468424102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>427.7674468424102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>303.3157620944359</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>156.4258145965255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>156.4258145965255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>156.4258145965255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7807,7 +7807,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>72.49447450407646</v>
+        <v>72.49447450407648</v>
       </c>
       <c r="L46" t="n">
         <v>196.1156525824101</v>
@@ -7837,19 +7837,19 @@
         <v>671.2162234865101</v>
       </c>
       <c r="U46" t="n">
-        <v>671.2162234865101</v>
+        <v>427.7674468424101</v>
       </c>
       <c r="V46" t="n">
-        <v>427.7674468424102</v>
+        <v>247.2706940082301</v>
       </c>
       <c r="W46" t="n">
-        <v>427.7674468424102</v>
+        <v>247.2706940082301</v>
       </c>
       <c r="X46" t="n">
-        <v>427.7674468424102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>427.7674468424102</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8067,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,7 +8310,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.24065988132496</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>61.62709692318009</v>
+        <v>275.5521713981267</v>
       </c>
       <c r="L11" t="n">
-        <v>246.5870792655717</v>
+        <v>5.572790387912619</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>93.63185483783359</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>210.1480633514831</v>
       </c>
       <c r="O11" t="n">
         <v>225.3381482324097</v>
       </c>
       <c r="P11" t="n">
-        <v>262.4845613343968</v>
+        <v>21.47027245673775</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>64.78262046021058</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>252.8265006550263</v>
+        <v>11.81221177736728</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>185.3943380869031</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>83.92572291041981</v>
       </c>
       <c r="O12" t="n">
-        <v>197.9162212446608</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>56.34219062510624</v>
+        <v>225.9526397501031</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8930,22 +8930,22 @@
         <v>34.53788252046763</v>
       </c>
       <c r="L14" t="n">
-        <v>246.5870792655717</v>
+        <v>63.52823031680096</v>
       </c>
       <c r="M14" t="n">
-        <v>215.2257611943464</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>210.1480633514831</v>
       </c>
       <c r="O14" t="n">
         <v>225.3381482324097</v>
       </c>
       <c r="P14" t="n">
-        <v>221.8803847424568</v>
+        <v>262.4845613343968</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.78262046021058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>53.10007110672431</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>11.81221177736728</v>
+        <v>252.8265006550263</v>
       </c>
       <c r="L15" t="n">
-        <v>210.1068197185356</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>185.3943380869031</v>
+        <v>56.34219062510621</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3680567082175</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>197.9162212446608</v>
       </c>
       <c r="P15" t="n">
-        <v>173.1166210513408</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.3551171519626</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119845</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>53.10007110672431</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>144.5601001639198</v>
+        <v>71.56913593023489</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>53.10007110672431</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>255.3541674711155</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>144.5601001639198</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>340.8342225379394</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>71.56913593023535</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,10 +9963,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>340.8342225379394</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>255.3541674711155</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>53.10007110672431</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>198.948049440649</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>340.8342225379396</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720741</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>53.10007110672433</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>198.9480494406492</v>
+        <v>125.9570852069647</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>57.24065988132497</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>34.53788252046766</v>
+        <v>275.5521713981267</v>
       </c>
       <c r="L41" t="n">
-        <v>246.5870792655716</v>
+        <v>83.52850458049683</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>174.6215846024064</v>
+        <v>210.1480633514831</v>
       </c>
       <c r="O41" t="n">
-        <v>225.3381482324096</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>262.4845613343967</v>
@@ -11142,22 +11142,22 @@
         <v>11.81221177736731</v>
       </c>
       <c r="L42" t="n">
-        <v>210.1068197185355</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>185.394338086903</v>
+        <v>185.3943380869031</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>169.3680567082175</v>
       </c>
       <c r="O42" t="n">
         <v>197.9162212446607</v>
       </c>
       <c r="P42" t="n">
-        <v>144.5684565148974</v>
+        <v>15.58504894132922</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.35511715196262</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>57.24065988132497</v>
       </c>
       <c r="K44" t="n">
         <v>34.53788252046766</v>
       </c>
       <c r="L44" t="n">
-        <v>5.572790387912647</v>
+        <v>246.5870792655716</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>215.2257611943463</v>
       </c>
       <c r="N44" t="n">
-        <v>156.2475479896225</v>
+        <v>210.1480633514831</v>
       </c>
       <c r="O44" t="n">
-        <v>225.3381482324096</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>262.4845613343967</v>
+        <v>237.0704696233834</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>64.78262046021061</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>53.10007110672433</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>252.8265006550263</v>
+        <v>11.81221177736731</v>
       </c>
       <c r="L45" t="n">
-        <v>210.1068197185355</v>
+        <v>210.1068197185356</v>
       </c>
       <c r="M45" t="n">
-        <v>185.394338086903</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>59.21324127878734</v>
       </c>
       <c r="O45" t="n">
-        <v>101.4703888818993</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>225.952639750103</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.35511715196262</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,19 +22589,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22632,16 +22632,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>55.44828489880223</v>
       </c>
       <c r="W3" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22787,16 +22787,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>351.4177255634863</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22832,7 +22832,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22841,16 +22841,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22914,7 +22914,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>74.95152673224419</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22981,16 +22981,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23103,19 +23103,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>5.424356414370408</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>341.8348646514867</v>
       </c>
       <c r="G11" t="n">
-        <v>201.5586529848715</v>
+        <v>413.8440386283136</v>
       </c>
       <c r="H11" t="n">
         <v>324.535902141107</v>
       </c>
       <c r="I11" t="n">
-        <v>154.2394007362223</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>58.23912399185231</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>175.7799687028017</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.7103951870705</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23343,7 +23343,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23391,19 +23391,19 @@
         <v>197.0188759693406</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8900351920932</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>41.31998168728995</v>
       </c>
       <c r="Y12" t="n">
-        <v>175.8323399235402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>133.4620575225586</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,13 +23431,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4096541723789</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>135.7732247714497</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.09860742570435</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>86.91206944136891</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23507,7 +23507,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>201.5586529848715</v>
+        <v>413.8440386283136</v>
       </c>
       <c r="H14" t="n">
         <v>324.535902141107</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.23912399185231</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>175.7799687028017</v>
       </c>
       <c r="T14" t="n">
-        <v>216.7103951870705</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2289569968908</v>
+        <v>10.21466811923173</v>
       </c>
       <c r="V14" t="n">
         <v>86.73796959247585</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>207.8877833138753</v>
       </c>
     </row>
     <row r="15">
@@ -23571,19 +23571,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3168226333133</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.5630444522099</v>
@@ -23592,7 +23592,7 @@
         <v>104.6977209486736</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>62.52509433669674</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23625,19 +23625,19 @@
         <v>157.1862328095917</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.0188759693406</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8900351920932</v>
+        <v>21.84970769832441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3366572553333</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4096541723789</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>135.7732247714497</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.69045563722172</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>31.37148968907253</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>147.8726902675475</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>73.81596234665435</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.1498495331092</v>
       </c>
       <c r="U16" t="n">
         <v>286.2833390599567</v>
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>122.2576499036366</v>
       </c>
       <c r="C17" t="n">
-        <v>255.0816690876148</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.8440386283136</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>324.535902141107</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.23912399185231</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>175.7799687028017</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23826,10 +23826,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>8.771961369978371</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>62.52509433669674</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>71.29705570667565</v>
       </c>
     </row>
     <row r="19">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>73.82457047058243</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>31.37148968907253</v>
       </c>
       <c r="R19" t="n">
-        <v>147.8726902675475</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.6135482943226</v>
@@ -23944,7 +23944,7 @@
         <v>225.1498495331092</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2833390599567</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>14.68961442064119</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>122.2891952037833</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>26.51686896909803</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>324.535902141107</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>58.23912399185231</v>
       </c>
       <c r="S20" t="n">
-        <v>175.7799687028017</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.7103951870705</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24057,7 +24057,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>71.29705570667562</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>51.70006355208863</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>19.59699215458633</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>86.72644012818591</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3366572553333</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.4096541723789</v>
@@ -24172,19 +24172,19 @@
         <v>31.37148968907253</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>147.8726902675475</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.6135482943226</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.1498495331092</v>
       </c>
       <c r="U22" t="n">
-        <v>226.5036975824009</v>
+        <v>286.2833390599567</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,22 +24206,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>129.7425948629662</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>324.535902141107</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>154.2394007362223</v>
@@ -24251,16 +24251,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.23912399185231</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>175.7799687028017</v>
       </c>
       <c r="T23" t="n">
-        <v>216.7103951870705</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2289569968908</v>
+        <v>241.1454121466186</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,7 +24288,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>71.29705570667527</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,7 +24297,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>71.29705570667511</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>167.3366572553333</v>
       </c>
       <c r="H25" t="n">
-        <v>16.10157628853014</v>
+        <v>156.4096541723789</v>
       </c>
       <c r="I25" t="n">
         <v>135.7732247714497</v>
@@ -24415,7 +24415,7 @@
         <v>212.6135482943226</v>
       </c>
       <c r="T25" t="n">
-        <v>225.1498495331092</v>
+        <v>91.9667736862028</v>
       </c>
       <c r="U25" t="n">
         <v>286.2833390599567</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>78.00117155180476</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>390.4815178921828</v>
       </c>
       <c r="G26" t="n">
-        <v>413.8440386283136</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>324.535902141107</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>58.23912399185231</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2289569968908</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>71.2970557066752</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24534,13 +24534,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>8.771961369978371</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>62.52509433669674</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>5.138547285325586</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24652,22 +24652,22 @@
         <v>212.6135482943226</v>
       </c>
       <c r="T28" t="n">
-        <v>152.5404573571217</v>
+        <v>225.1498495331092</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2833390599567</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,13 +24689,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.8440386283136</v>
       </c>
       <c r="H29" t="n">
-        <v>324.535902141107</v>
+        <v>46.797123547615</v>
       </c>
       <c r="I29" t="n">
         <v>154.2394007362223</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>58.23912399185232</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>175.7799687028017</v>
@@ -24737,10 +24737,10 @@
         <v>251.2289569968908</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>140.9580002609511</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24777,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>62.52509433669674</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>51.70006355208864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>8.771961369978982</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>19.59699215458681</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,10 +24856,10 @@
         <v>156.4096541723789</v>
       </c>
       <c r="I31" t="n">
-        <v>135.7732247714497</v>
+        <v>41.18548733521365</v>
       </c>
       <c r="J31" t="n">
-        <v>47.09860742570436</v>
+        <v>47.09860742570435</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,25 +24880,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.37148968907253</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>147.8726902675476</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.6135482943226</v>
       </c>
       <c r="T31" t="n">
-        <v>225.1498495331092</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2833390599567</v>
       </c>
       <c r="V31" t="n">
-        <v>179.5282511478413</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>229.4121183386703</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.8440386283136</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>324.535902141107</v>
       </c>
       <c r="I32" t="n">
         <v>154.2394007362223</v>
@@ -24968,22 +24968,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.7103951870705</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>149.6646784248688</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25005,16 +25005,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>71.29705570667562</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>8.771961369978811</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>62.52509433669675</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>87.58438231545883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>104.1831455360173</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3366572553333</v>
       </c>
       <c r="H34" t="n">
         <v>156.4096541723789</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.37148968907253</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>147.8726902675476</v>
@@ -25129,19 +25129,19 @@
         <v>225.1498495331092</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2833390599567</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.8440386283136</v>
+        <v>121.812949833099</v>
       </c>
       <c r="H35" t="n">
-        <v>41.03850534331428</v>
+        <v>324.535902141107</v>
       </c>
       <c r="I35" t="n">
-        <v>154.2394007362223</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25202,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>175.7799687028017</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.7103951870705</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2289569968908</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25248,10 +25248,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>8.771961369978811</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>62.52509433669675</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,7 +25284,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>71.29705570667576</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3366572553333</v>
@@ -25354,28 +25354,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.37148968907253</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>147.8726902675476</v>
       </c>
       <c r="S37" t="n">
-        <v>212.6135482943226</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.1498495331092</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2833390599567</v>
+        <v>30.27369549374868</v>
       </c>
       <c r="V37" t="n">
-        <v>118.9545674769216</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,16 +25394,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>322.7012907880972</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.8440386283136</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>324.535902141107</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>58.23912399185232</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.7103951870705</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2289569968908</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>274.7591267554191</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25473,7 +25473,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>71.29705570667571</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>51.70006355208864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>19.59699215458679</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.2225880059506</v>
+        <v>46.64890433503146</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25603,7 +25603,7 @@
         <v>225.1498495331092</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2833390599567</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,10 +25637,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640525</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>201.5586529848717</v>
+        <v>413.8440386283136</v>
       </c>
       <c r="H41" t="n">
         <v>324.535902141107</v>
@@ -25679,22 +25679,22 @@
         <v>175.7799687028017</v>
       </c>
       <c r="T41" t="n">
-        <v>216.7103951870705</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2289569968908</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>112.6516893833825</v>
       </c>
       <c r="X41" t="n">
-        <v>128.7168118008101</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25713,19 +25713,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5630444522099</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>104.6977209486736</v>
       </c>
       <c r="I42" t="n">
-        <v>62.52509433669675</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>51.70006355208864</v>
       </c>
       <c r="S42" t="n">
-        <v>127.3358769558279</v>
+        <v>157.1862328095917</v>
       </c>
       <c r="T42" t="n">
         <v>197.0188759693406</v>
@@ -25764,13 +25764,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326066</v>
+        <v>65.52316897076881</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>113.4871425233678</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.1498495331092</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>220.1781606780215</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25916,22 +25916,22 @@
         <v>175.7799687028017</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.7103951870705</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2289569968908</v>
+        <v>38.94357135344879</v>
       </c>
       <c r="V44" t="n">
-        <v>91.16297913610455</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.7168118008101</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25941,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>118.0834041913309</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5630444522099</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>104.6977209486736</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>51.70006355208864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>157.1862328095917</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.0188759693406</v>
@@ -26007,10 +26007,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>81.02656126111387</v>
       </c>
     </row>
     <row r="46">
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>23.22679474607462</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3366572553333</v>
@@ -26041,7 +26041,7 @@
         <v>156.4096541723789</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>135.7732247714497</v>
       </c>
       <c r="J46" t="n">
         <v>47.09860742570436</v>
@@ -26077,16 +26077,16 @@
         <v>225.1498495331092</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2833390599567</v>
+        <v>45.26905018229775</v>
       </c>
       <c r="V46" t="n">
-        <v>11.12335444616906</v>
+        <v>73.44585801798979</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473974.7313298003</v>
+        <v>473974.7313298002</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473974.7313298002</v>
+        <v>473974.7313298003</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>491234.8538564154</v>
+        <v>491234.8538564153</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772582.0974178278</v>
+        <v>772582.0974178275</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772582.0974178277</v>
+        <v>772582.0974178276</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772582.0974178278</v>
+        <v>772582.0974178277</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772582.0974178278</v>
+        <v>772582.0974178273</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772582.0974178276</v>
+        <v>772582.0974178277</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772582.0974178278</v>
+        <v>772582.0974178275</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491234.8538564152</v>
+        <v>491234.8538564153</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26317,19 @@
         <v>166160.6725313324</v>
       </c>
       <c r="D2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="E2" t="n">
         <v>185814.5077999526</v>
       </c>
       <c r="F2" t="n">
-        <v>185814.5077999527</v>
+        <v>185814.5077999526</v>
       </c>
       <c r="G2" t="n">
+        <v>284287.298948793</v>
+      </c>
+      <c r="H2" t="n">
         <v>284287.2989487931</v>
-      </c>
-      <c r="H2" t="n">
-        <v>284287.298948793</v>
       </c>
       <c r="I2" t="n">
         <v>284287.298948793</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910617</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58641.60449396486</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="C4" t="n">
-        <v>58641.60449396486</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="D4" t="n">
-        <v>58641.60449396486</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="E4" t="n">
-        <v>26846.34585409647</v>
+        <v>26896.93150114227</v>
       </c>
       <c r="F4" t="n">
-        <v>26846.34585409647</v>
+        <v>26896.93150114227</v>
       </c>
       <c r="G4" t="n">
-        <v>62246.40068926442</v>
+        <v>62363.61375350492</v>
       </c>
       <c r="H4" t="n">
-        <v>62246.40068926441</v>
+        <v>62363.61375350492</v>
       </c>
       <c r="I4" t="n">
-        <v>62246.40068926441</v>
+        <v>62363.61375350492</v>
       </c>
       <c r="J4" t="n">
-        <v>62246.40068926441</v>
+        <v>62363.61375350492</v>
       </c>
       <c r="K4" t="n">
-        <v>62246.40068926441</v>
+        <v>62363.61375350492</v>
       </c>
       <c r="L4" t="n">
-        <v>62246.40068926441</v>
+        <v>62363.61375350492</v>
       </c>
       <c r="M4" t="n">
-        <v>62246.40068926442</v>
+        <v>62363.61375350492</v>
       </c>
       <c r="N4" t="n">
-        <v>62246.40068926442</v>
+        <v>62363.61375350492</v>
       </c>
       <c r="O4" t="n">
-        <v>26846.34585409647</v>
+        <v>26896.93150114227</v>
       </c>
       <c r="P4" t="n">
-        <v>26846.34585409647</v>
+        <v>26896.93150114227</v>
       </c>
     </row>
     <row r="5">
@@ -26482,10 +26482,10 @@
         <v>22563.82815227264</v>
       </c>
       <c r="G5" t="n">
-        <v>47854.98707273138</v>
+        <v>47854.98707273137</v>
       </c>
       <c r="H5" t="n">
-        <v>47854.98707273138</v>
+        <v>47854.98707273137</v>
       </c>
       <c r="I5" t="n">
         <v>47854.98707273138</v>
@@ -26506,10 +26506,10 @@
         <v>47854.98707273137</v>
       </c>
       <c r="O5" t="n">
-        <v>22563.82815227263</v>
+        <v>22563.82815227264</v>
       </c>
       <c r="P5" t="n">
-        <v>22563.82815227263</v>
+        <v>22563.82815227264</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21531.63225794184</v>
+        <v>-21642.61026315007</v>
       </c>
       <c r="C6" t="n">
-        <v>59237.79927360589</v>
+        <v>59126.82126839767</v>
       </c>
       <c r="D6" t="n">
-        <v>59237.79927360589</v>
+        <v>59126.82126839765</v>
       </c>
       <c r="E6" t="n">
-        <v>-155111.5278214569</v>
+        <v>-155162.1134685026</v>
       </c>
       <c r="F6" t="n">
-        <v>136404.3337935836</v>
+        <v>136353.7481465377</v>
       </c>
       <c r="G6" t="n">
-        <v>60173.94913558133</v>
+        <v>60056.7360713407</v>
       </c>
       <c r="H6" t="n">
-        <v>174185.9111867972</v>
+        <v>174068.6981225568</v>
       </c>
       <c r="I6" t="n">
-        <v>174185.9111867973</v>
+        <v>174068.6981225567</v>
       </c>
       <c r="J6" t="n">
-        <v>111125.9685876913</v>
+        <v>111008.7555234507</v>
       </c>
       <c r="K6" t="n">
-        <v>174185.9111867972</v>
+        <v>174068.6981225567</v>
       </c>
       <c r="L6" t="n">
-        <v>174185.9111867973</v>
+        <v>174068.6981225567</v>
       </c>
       <c r="M6" t="n">
-        <v>174185.9111867972</v>
+        <v>174068.6981225567</v>
       </c>
       <c r="N6" t="n">
-        <v>174185.9111867971</v>
+        <v>174068.6981225566</v>
       </c>
       <c r="O6" t="n">
-        <v>136404.3337935836</v>
+        <v>136353.7481465377</v>
       </c>
       <c r="P6" t="n">
-        <v>136404.3337935835</v>
+        <v>136353.7481465377</v>
       </c>
     </row>
   </sheetData>
@@ -26802,10 +26802,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>656.9872974378357</v>
+        <v>656.9872974378355</v>
       </c>
       <c r="H4" t="n">
-        <v>656.9872974378357</v>
+        <v>656.9872974378355</v>
       </c>
       <c r="I4" t="n">
         <v>656.9872974378357</v>
@@ -26826,10 +26826,10 @@
         <v>656.9872974378355</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>415.9730085601766</v>
+        <v>415.9730085601765</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776588</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>415.9730085601766</v>
+        <v>415.9730085601765</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>14.93889997466008</v>
       </c>
       <c r="I29" t="n">
-        <v>56.23648883418362</v>
+        <v>56.23648883418363</v>
       </c>
       <c r="J29" t="n">
         <v>123.8052446453613</v>
@@ -33205,13 +33205,13 @@
         <v>157.5230694142389</v>
       </c>
       <c r="R29" t="n">
-        <v>91.62999394929736</v>
+        <v>91.62999394929737</v>
       </c>
       <c r="S29" t="n">
         <v>33.2401008834436</v>
       </c>
       <c r="T29" t="n">
-        <v>6.385454377060857</v>
+        <v>6.385454377060858</v>
       </c>
       <c r="U29" t="n">
         <v>0.1166959109457152</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7804727110007362</v>
+        <v>0.7804727110007363</v>
       </c>
       <c r="H30" t="n">
-        <v>7.5377232878229</v>
+        <v>7.537723287822902</v>
       </c>
       <c r="I30" t="n">
         <v>26.87153851471833</v>
       </c>
       <c r="J30" t="n">
-        <v>73.73755555994236</v>
+        <v>73.73755555994238</v>
       </c>
       <c r="K30" t="n">
         <v>126.0292271969917</v>
@@ -33281,7 +33281,7 @@
         <v>149.0360565418862</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.6266569340589</v>
+        <v>99.62665693405891</v>
       </c>
       <c r="R30" t="n">
         <v>48.4577706005545</v>
@@ -33290,10 +33290,10 @@
         <v>14.49693829424612</v>
       </c>
       <c r="T30" t="n">
-        <v>3.145852725481036</v>
+        <v>3.145852725481037</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0513468888816274</v>
+        <v>0.05134688888162741</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,10 +33330,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6543221031254374</v>
+        <v>0.6543221031254375</v>
       </c>
       <c r="H31" t="n">
-        <v>5.81751833506071</v>
+        <v>5.817518335060711</v>
       </c>
       <c r="I31" t="n">
         <v>19.67725015580861</v>
@@ -33342,37 +33342,37 @@
         <v>46.26057269096842</v>
       </c>
       <c r="K31" t="n">
-        <v>76.02033161766443</v>
+        <v>76.02033161766444</v>
       </c>
       <c r="L31" t="n">
-        <v>97.27985158648549</v>
+        <v>97.27985158648551</v>
       </c>
       <c r="M31" t="n">
         <v>102.5679638562901</v>
       </c>
       <c r="N31" t="n">
-        <v>100.129126926459</v>
+        <v>100.1291269264591</v>
       </c>
       <c r="O31" t="n">
-        <v>92.48545508540276</v>
+        <v>92.48545508540278</v>
       </c>
       <c r="P31" t="n">
         <v>79.13728418164378</v>
       </c>
       <c r="Q31" t="n">
-        <v>54.79055356262185</v>
+        <v>54.79055356262186</v>
       </c>
       <c r="R31" t="n">
         <v>29.42070110962193</v>
       </c>
       <c r="S31" t="n">
-        <v>11.40304974264966</v>
+        <v>11.40304974264967</v>
       </c>
       <c r="T31" t="n">
         <v>2.795739895172323</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0356902965341148</v>
+        <v>0.03569029653411481</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,16 +34787,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,7 +35030,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>111.8559552907488</v>
       </c>
       <c r="K11" t="n">
-        <v>27.08921440271245</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>119.4203825211462</v>
+      </c>
+      <c r="N11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="M11" t="n">
-        <v>25.78852768331265</v>
-      </c>
-      <c r="N11" t="n">
-        <v>30.86622552617592</v>
       </c>
       <c r="O11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.5323701996941</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>72.99096423368452</v>
       </c>
       <c r="K12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>30.90746915912342</v>
       </c>
       <c r="M12" t="n">
-        <v>55.61995079075592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>71.64623216944153</v>
+        <v>155.5719550798613</v>
       </c>
       <c r="O12" t="n">
+        <v>43.09806763299829</v>
+      </c>
+      <c r="P12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="P12" t="n">
-        <v>71.40383975266224</v>
       </c>
       <c r="Q12" t="n">
         <v>169.7221705838865</v>
@@ -35650,22 +35650,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>57.95543992888834</v>
+      </c>
+      <c r="M14" t="n">
+        <v>25.78852768331265</v>
+      </c>
+      <c r="N14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="M14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="N14" t="n">
-        <v>30.86622552617592</v>
       </c>
       <c r="O14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P14" t="n">
-        <v>200.4101122857191</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>147.5323701996941</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>72.99096423368452</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L15" t="n">
+        <v>30.90746915912342</v>
+      </c>
+      <c r="M15" t="n">
+        <v>111.9621414158621</v>
+      </c>
+      <c r="N15" t="n">
+        <v>71.64623216944153</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="M15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>43.09806763299829</v>
-      </c>
       <c r="P15" t="n">
-        <v>188.1782701788968</v>
+        <v>15.061649127556</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>169.7221705838865</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>475.3020611761451</v>
       </c>
       <c r="N17" t="n">
-        <v>468.2131499381604</v>
+        <v>468.2131499381601</v>
       </c>
       <c r="O17" t="n">
         <v>396.4763219079948</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>72.99096423368452</v>
       </c>
       <c r="K18" t="n">
         <v>252.6530252352113</v>
@@ -35981,7 +35981,7 @@
         <v>333.5244177674932</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.2049830119572</v>
+        <v>31.21401877827228</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>72.99096423368452</v>
       </c>
       <c r="K21" t="n">
         <v>252.6530252352113</v>
@@ -36212,13 +36212,13 @@
         <v>550.988606512995</v>
       </c>
       <c r="O21" t="n">
-        <v>436.9603869097278</v>
+        <v>298.4522351041138</v>
       </c>
       <c r="P21" t="n">
         <v>333.5244177674932</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.2049830119572</v>
+        <v>169.7221705838865</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>521.3250145407558</v>
       </c>
       <c r="N24" t="n">
-        <v>412.4804547073809</v>
+        <v>550.988606512995</v>
       </c>
       <c r="O24" t="n">
         <v>436.9603869097278</v>
@@ -36455,7 +36455,7 @@
         <v>333.5244177674932</v>
       </c>
       <c r="Q24" t="n">
-        <v>169.7221705838865</v>
+        <v>31.21401877827274</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>521.3250145407558</v>
       </c>
       <c r="N27" t="n">
-        <v>412.4804547073809</v>
+        <v>550.988606512995</v>
       </c>
       <c r="O27" t="n">
-        <v>436.9603869097278</v>
+        <v>298.4522351041138</v>
       </c>
       <c r="P27" t="n">
         <v>333.5244177674932</v>
@@ -36841,13 +36841,13 @@
         <v>475.3020611761451</v>
       </c>
       <c r="N29" t="n">
-        <v>468.21314993816</v>
+        <v>468.2131499381601</v>
       </c>
       <c r="O29" t="n">
-        <v>396.4763219079947</v>
+        <v>396.4763219079948</v>
       </c>
       <c r="P29" t="n">
-        <v>300.3284357147448</v>
+        <v>300.3284357147449</v>
       </c>
       <c r="Q29" t="n">
         <v>147.5323701996941</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>72.99096423368451</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>252.6530252352113</v>
+        <v>187.1358376632817</v>
       </c>
       <c r="L30" t="n">
         <v>401.7478144625826</v>
@@ -36920,13 +36920,13 @@
         <v>521.3250145407558</v>
       </c>
       <c r="N30" t="n">
-        <v>412.4804547073811</v>
+        <v>550.988606512995</v>
       </c>
       <c r="O30" t="n">
         <v>436.9603869097278</v>
       </c>
       <c r="P30" t="n">
-        <v>333.5244177674931</v>
+        <v>333.5244177674932</v>
       </c>
       <c r="Q30" t="n">
         <v>169.7221705838865</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>53.75083979178157</v>
+        <v>53.75083979178159</v>
       </c>
       <c r="L31" t="n">
         <v>124.8698768468016</v>
@@ -36999,10 +36999,10 @@
         <v>142.1518408181307</v>
       </c>
       <c r="N31" t="n">
-        <v>144.2612993056876</v>
+        <v>144.2612993056877</v>
       </c>
       <c r="O31" t="n">
-        <v>117.0705829994424</v>
+        <v>117.0705829994425</v>
       </c>
       <c r="P31" t="n">
         <v>76.41584344653727</v>
@@ -37315,7 +37315,7 @@
         <v>475.3020611761451</v>
       </c>
       <c r="N35" t="n">
-        <v>468.2131499381602</v>
+        <v>468.21314993816</v>
       </c>
       <c r="O35" t="n">
         <v>396.4763219079947</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>111.8559552907491</v>
+        <v>111.8559552907488</v>
       </c>
       <c r="K38" t="n">
-        <v>289.6075300506971</v>
+        <v>289.6075300506973</v>
       </c>
       <c r="L38" t="n">
         <v>412.0884241625378</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>72.99096423368451</v>
       </c>
       <c r="K39" t="n">
-        <v>187.1358376632819</v>
+        <v>114.1448734295974</v>
       </c>
       <c r="L39" t="n">
         <v>401.7478144625826</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>111.8559552907488</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="L41" t="n">
-        <v>241.0142888776589</v>
+        <v>77.95571419258418</v>
       </c>
       <c r="M41" t="n">
         <v>25.78852768331265</v>
       </c>
       <c r="N41" t="n">
-        <v>205.4878101285823</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O41" t="n">
-        <v>241.0142888776589</v>
+        <v>15.67614064524938</v>
       </c>
       <c r="P41" t="n">
-        <v>241.0142888776589</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>241.0142888776589</v>
+        <v>30.90746915912339</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776589</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>71.6462321694415</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776589</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
-        <v>159.6301056424534</v>
+        <v>30.64669806888519</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>169.7221705838865</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>111.8559552907488</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="M44" t="n">
-        <v>25.78852768331265</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N44" t="n">
-        <v>187.1137735157984</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O44" t="n">
-        <v>241.0142888776589</v>
+        <v>15.67614064524938</v>
       </c>
       <c r="P44" t="n">
-        <v>241.0142888776589</v>
+        <v>215.6001971666457</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.5323701996941</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>72.99096423368451</v>
       </c>
       <c r="K45" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>241.0142888776589</v>
+        <v>241.014288877659</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776589</v>
+        <v>55.61995079075589</v>
       </c>
       <c r="N45" t="n">
-        <v>71.6462321694415</v>
+        <v>130.8594734482288</v>
       </c>
       <c r="O45" t="n">
-        <v>144.5684565148975</v>
+        <v>43.09806763299827</v>
       </c>
       <c r="P45" t="n">
-        <v>15.06164912755597</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>169.7221705838865</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>703411.1055633895</v>
+        <v>627083.6025434532</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127193.139305251</v>
+        <v>1127193.13930525</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7570781.369399244</v>
+        <v>7570781.369399243</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +673,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>129.2120888579987</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>128.9764887865587</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>102.3382270926889</v>
       </c>
     </row>
     <row r="6">
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14.59515906968671</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.38673497138125</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,16 +1186,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1277,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>375.997640544676</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>363.2180694894119</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>358.7598605819517</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.7225182406118</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>22.52697675056592</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>84.0029838357751</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>166.8501821880469</v>
@@ -1505,19 +1505,19 @@
         <v>199.1159643940868</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9242640564797</v>
+        <v>109.7075460752558</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.48820283255405</v>
+        <v>1.318715230032588</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.30713092635</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>341.9034705654188</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>375.9976405446759</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>375.9976405446759</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>334.4944720263235</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>191.7277703688167</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>208.5352587314877</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0833231908847</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>33.67962123741987</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.00298383577504</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.1159643940868</v>
       </c>
       <c r="U15" t="n">
         <v>225.9242640564797</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>87.24166606347349</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.318715230032064</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.7728414725427</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.30713092635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>119.85300468384</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>311.4936872159399</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>87.52232288612761</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>50.06729527459978</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>404.7513511067306</v>
       </c>
       <c r="G20" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>90.04875807993751</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>123.2728600063076</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>186.4369133950372</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>316.2232109408291</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
         <v>196.8897623984489</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>10.70611463921582</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>107.301303802437</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>252.1842897060464</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>138.3038958997682</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>66.12354205134243</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>127.2960242073927</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3088,7 +3088,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>136.0764651776645</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.6462295870871</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>344.1885632976872</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0896134541867</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>95.09774413911167</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>290.0047112246476</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,7 +3590,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554002</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.264003285459112</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>331.1787217917503</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>375.9976405446758</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>375.9976405446758</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>375.9976405446758</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>165.0526337572516</v>
       </c>
     </row>
     <row r="42">
@@ -3824,19 +3824,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>61.42221998250819</v>
@@ -3869,25 +3869,25 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>66.02279626994596</v>
+        <v>50.30391270466419</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.706926911161478</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>375.9976405446758</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>13.52248889360107</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.252351998330257</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.9976405446758</v>
+        <v>375.9976405446764</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>61.42221998250819</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>173.2628744072539</v>
+        <v>123.8528120813203</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V2" t="n">
-        <v>569.2254314512334</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W2" t="n">
-        <v>569.2254314512334</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.4948343740486</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="C3" t="n">
-        <v>298.4948343740486</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D3" t="n">
-        <v>149.5604247127973</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>298.4948343740486</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X3" t="n">
-        <v>298.4948343740486</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.4948343740486</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="4">
@@ -4509,22 +4509,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U5" t="n">
-        <v>366.1018663125844</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>366.1018663125844</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W5" t="n">
-        <v>122.6530896684844</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X5" t="n">
-        <v>122.6530896684844</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C6" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D6" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E6" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F6" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G6" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>125.0774898247174</v>
+        <v>560.7898476621102</v>
       </c>
       <c r="W6" t="n">
-        <v>125.0774898247174</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="X6" t="n">
-        <v>125.0774898247174</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.0774898247174</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="7">
@@ -4749,7 +4749,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>705.7335281915883</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="10">
@@ -4980,19 +4980,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1124.19496566893</v>
+        <v>1130.524803917626</v>
       </c>
       <c r="C11" t="n">
-        <v>755.2324487285184</v>
+        <v>1130.524803917626</v>
       </c>
       <c r="D11" t="n">
-        <v>396.9667501217679</v>
+        <v>772.2591053108752</v>
       </c>
       <c r="E11" t="n">
-        <v>30.07981124357408</v>
+        <v>392.4635088011011</v>
       </c>
       <c r="F11" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G11" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H11" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I11" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J11" t="n">
         <v>59.11146216633551</v>
       </c>
       <c r="K11" t="n">
-        <v>223.3671854680952</v>
+        <v>223.3671854680954</v>
       </c>
       <c r="L11" t="n">
-        <v>479.4175622507494</v>
+        <v>479.4175622507498</v>
       </c>
       <c r="M11" t="n">
-        <v>780.9294875202282</v>
+        <v>780.9294875202291</v>
       </c>
       <c r="N11" t="n">
-        <v>1072.688193415767</v>
+        <v>1072.688193415768</v>
       </c>
       <c r="O11" t="n">
-        <v>1303.00002825942</v>
+        <v>1303.000028259421</v>
       </c>
       <c r="P11" t="n">
-        <v>1461.891467938324</v>
+        <v>1461.891467938325</v>
       </c>
       <c r="Q11" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="R11" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="S11" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="T11" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="U11" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="V11" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="W11" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="X11" t="n">
-        <v>1503.990562178704</v>
+        <v>1130.524803917626</v>
       </c>
       <c r="Y11" t="n">
-        <v>1503.990562178704</v>
+        <v>1130.524803917626</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>163.6651597195112</v>
+        <v>204.5328405247011</v>
       </c>
       <c r="C12" t="n">
-        <v>163.6651597195112</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="D12" t="n">
-        <v>163.6651597195112</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="E12" t="n">
-        <v>163.6651597195112</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="F12" t="n">
-        <v>163.6651597195112</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G12" t="n">
-        <v>163.6651597195112</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H12" t="n">
-        <v>52.83433321384268</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I12" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J12" t="n">
-        <v>53.67748396344809</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K12" t="n">
-        <v>201.7102323161144</v>
+        <v>197.0328356186601</v>
       </c>
       <c r="L12" t="n">
-        <v>487.6035731581275</v>
+        <v>482.9261764606733</v>
       </c>
       <c r="M12" t="n">
-        <v>859.8412372973567</v>
+        <v>821.7117866195606</v>
       </c>
       <c r="N12" t="n">
-        <v>859.8412372973567</v>
+        <v>1193.94945075879</v>
       </c>
       <c r="O12" t="n">
-        <v>1169.882348717272</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="P12" t="n">
-        <v>1401.714606661566</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="Q12" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="R12" t="n">
-        <v>1419.139063354689</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="S12" t="n">
-        <v>1250.603525791005</v>
+        <v>1335.455024615022</v>
       </c>
       <c r="T12" t="n">
-        <v>1049.476289029301</v>
+        <v>1134.327787853318</v>
       </c>
       <c r="U12" t="n">
-        <v>821.2699616995235</v>
+        <v>1023.512084746999</v>
       </c>
       <c r="V12" t="n">
-        <v>586.1178534677808</v>
+        <v>788.359976515256</v>
       </c>
       <c r="W12" t="n">
-        <v>331.8804967395792</v>
+        <v>788.359976515256</v>
       </c>
       <c r="X12" t="n">
-        <v>331.8804967395792</v>
+        <v>580.5084763097232</v>
       </c>
       <c r="Y12" t="n">
-        <v>331.8804967395792</v>
+        <v>372.7481775447692</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="C13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="D13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="E13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="F13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K13" t="n">
-        <v>33.12323397401376</v>
+        <v>33.12323397401387</v>
       </c>
       <c r="L13" t="n">
-        <v>92.54420185816602</v>
+        <v>92.54420185816623</v>
       </c>
       <c r="M13" t="n">
-        <v>165.5844041520418</v>
+        <v>165.5844041520421</v>
       </c>
       <c r="N13" t="n">
-        <v>242.3224901101015</v>
+        <v>242.3224901101019</v>
       </c>
       <c r="O13" t="n">
-        <v>297.186237397005</v>
+        <v>297.1862373970055</v>
       </c>
       <c r="P13" t="n">
-        <v>320.6109689772933</v>
+        <v>320.6109689772939</v>
       </c>
       <c r="Q13" t="n">
-        <v>320.6109689772933</v>
+        <v>320.6109689772939</v>
       </c>
       <c r="R13" t="n">
-        <v>284.764299449461</v>
+        <v>319.2789333914024</v>
       </c>
       <c r="S13" t="n">
-        <v>284.764299449461</v>
+        <v>319.2789333914024</v>
       </c>
       <c r="T13" t="n">
-        <v>284.764299449461</v>
+        <v>319.2789333914024</v>
       </c>
       <c r="U13" t="n">
-        <v>284.764299449461</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="V13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="W13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="X13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.07981124357408</v>
+        <v>30.07981124357411</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1503.990562178704</v>
+        <v>919.8831284312744</v>
       </c>
       <c r="C14" t="n">
-        <v>1135.028045238292</v>
+        <v>919.8831284312744</v>
       </c>
       <c r="D14" t="n">
-        <v>1135.028045238292</v>
+        <v>561.6174298245239</v>
       </c>
       <c r="E14" t="n">
-        <v>789.6710042631214</v>
+        <v>561.6174298245239</v>
       </c>
       <c r="F14" t="n">
-        <v>409.8754077533477</v>
+        <v>561.6174298245239</v>
       </c>
       <c r="G14" t="n">
-        <v>30.07981124357407</v>
+        <v>561.6174298245239</v>
       </c>
       <c r="H14" t="n">
-        <v>30.07981124357407</v>
+        <v>223.7442257575304</v>
       </c>
       <c r="I14" t="n">
-        <v>30.07981124357407</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J14" t="n">
-        <v>59.11146216633537</v>
+        <v>59.11146216633551</v>
       </c>
       <c r="K14" t="n">
-        <v>223.3671854680949</v>
+        <v>223.3671854680953</v>
       </c>
       <c r="L14" t="n">
-        <v>479.4175622507491</v>
+        <v>479.4175622507498</v>
       </c>
       <c r="M14" t="n">
-        <v>780.9294875202281</v>
+        <v>780.929487520229</v>
       </c>
       <c r="N14" t="n">
-        <v>1072.688193415767</v>
+        <v>1072.688193415768</v>
       </c>
       <c r="O14" t="n">
-        <v>1303.00002825942</v>
+        <v>1303.000028259421</v>
       </c>
       <c r="P14" t="n">
-        <v>1461.891467938324</v>
+        <v>1461.891467938325</v>
       </c>
       <c r="Q14" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="R14" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="S14" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="T14" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="U14" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="V14" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="W14" t="n">
-        <v>1503.990562178704</v>
+        <v>1293.348886692354</v>
       </c>
       <c r="X14" t="n">
-        <v>1503.990562178704</v>
+        <v>919.8831284312744</v>
       </c>
       <c r="Y14" t="n">
-        <v>1503.990562178704</v>
+        <v>919.8831284312744</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>202.5676338984272</v>
+        <v>204.5328405247011</v>
       </c>
       <c r="C15" t="n">
-        <v>202.5676338984272</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="D15" t="n">
-        <v>202.5676338984272</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="E15" t="n">
-        <v>202.5676338984272</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="F15" t="n">
-        <v>202.5676338984272</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G15" t="n">
-        <v>64.09963067531132</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H15" t="n">
-        <v>30.07981124357407</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I15" t="n">
-        <v>30.07981124357407</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J15" t="n">
-        <v>53.67748396344808</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K15" t="n">
-        <v>220.6305083385339</v>
+        <v>197.0328356186601</v>
       </c>
       <c r="L15" t="n">
-        <v>506.523849180547</v>
+        <v>482.9261764606733</v>
       </c>
       <c r="M15" t="n">
-        <v>878.7615133197762</v>
+        <v>855.1638405999029</v>
       </c>
       <c r="N15" t="n">
-        <v>962.1171928144938</v>
+        <v>1193.94945075879</v>
       </c>
       <c r="O15" t="n">
-        <v>1272.158304234409</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="P15" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="Q15" t="n">
-        <v>1503.990562178704</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="R15" t="n">
-        <v>1503.990562178704</v>
+        <v>1419.13906335469</v>
       </c>
       <c r="S15" t="n">
-        <v>1503.990562178704</v>
+        <v>1419.13906335469</v>
       </c>
       <c r="T15" t="n">
-        <v>1503.990562178704</v>
+        <v>1218.011826592986</v>
       </c>
       <c r="U15" t="n">
-        <v>1275.784234848926</v>
+        <v>989.805499263209</v>
       </c>
       <c r="V15" t="n">
-        <v>1040.632126617184</v>
+        <v>754.6533910314663</v>
       </c>
       <c r="W15" t="n">
-        <v>786.394769888982</v>
+        <v>500.4160343032647</v>
       </c>
       <c r="X15" t="n">
-        <v>578.5432696834491</v>
+        <v>412.2931392896551</v>
       </c>
       <c r="Y15" t="n">
-        <v>370.7829709184952</v>
+        <v>204.5328405247011</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.41184682946505</v>
+        <v>199.5473278825062</v>
       </c>
       <c r="C16" t="n">
-        <v>31.41184682946505</v>
+        <v>199.5473278825062</v>
       </c>
       <c r="D16" t="n">
-        <v>31.41184682946505</v>
+        <v>199.5473278825062</v>
       </c>
       <c r="E16" t="n">
-        <v>30.07981124357407</v>
+        <v>199.5473278825062</v>
       </c>
       <c r="F16" t="n">
-        <v>30.07981124357407</v>
+        <v>199.5473278825062</v>
       </c>
       <c r="G16" t="n">
-        <v>30.07981124357407</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H16" t="n">
-        <v>30.07981124357407</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I16" t="n">
-        <v>30.07981124357407</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07981124357407</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K16" t="n">
-        <v>33.12323397401376</v>
+        <v>33.12323397401388</v>
       </c>
       <c r="L16" t="n">
-        <v>92.54420185816602</v>
+        <v>92.54420185816625</v>
       </c>
       <c r="M16" t="n">
-        <v>165.5844041520418</v>
+        <v>165.5844041520421</v>
       </c>
       <c r="N16" t="n">
-        <v>242.3224901101015</v>
+        <v>242.3224901101019</v>
       </c>
       <c r="O16" t="n">
-        <v>297.186237397005</v>
+        <v>297.1862373970056</v>
       </c>
       <c r="P16" t="n">
-        <v>320.6109689772933</v>
+        <v>320.610968977294</v>
       </c>
       <c r="Q16" t="n">
-        <v>320.6109689772933</v>
+        <v>320.610968977294</v>
       </c>
       <c r="R16" t="n">
-        <v>320.6109689772933</v>
+        <v>320.610968977294</v>
       </c>
       <c r="S16" t="n">
-        <v>320.6109689772933</v>
+        <v>320.610968977294</v>
       </c>
       <c r="T16" t="n">
-        <v>320.6109689772933</v>
+        <v>320.610968977294</v>
       </c>
       <c r="U16" t="n">
-        <v>31.41184682946505</v>
+        <v>320.610968977294</v>
       </c>
       <c r="V16" t="n">
-        <v>31.41184682946505</v>
+        <v>320.610968977294</v>
       </c>
       <c r="W16" t="n">
-        <v>31.41184682946505</v>
+        <v>320.610968977294</v>
       </c>
       <c r="X16" t="n">
-        <v>31.41184682946505</v>
+        <v>199.5473278825062</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.41184682946505</v>
+        <v>199.5473278825062</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1995.909162857192</v>
+        <v>1905.140074719375</v>
       </c>
       <c r="C17" t="n">
-        <v>1626.94664591678</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.911859172213</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W17" t="n">
-        <v>2382.509002921313</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X17" t="n">
-        <v>2382.509002921313</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2382.509002921313</v>
+        <v>1905.140074719375</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5621,22 +5621,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>150.1725317831289</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>150.1725317831289</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>500.8207968750362</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>500.8207968750362</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>500.8207968750362</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>500.8207968750362</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y19" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1920.409918978289</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C20" t="n">
-        <v>1551.447402037877</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="D20" t="n">
-        <v>1193.181703431127</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="E20" t="n">
-        <v>807.3934508328825</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="F20" t="n">
-        <v>396.407546043275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,7 +5752,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733127</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y20" t="n">
-        <v>2307.009759042411</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="21">
@@ -5843,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2329.466564376782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2329.466564376782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y22" t="n">
-        <v>2476.356511874692</v>
+        <v>144.9013233152508</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1271.984870679801</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="C23" t="n">
-        <v>1271.984870679801</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D23" t="n">
-        <v>1271.984870679801</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E23" t="n">
-        <v>1271.984870679801</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
         <v>207.4089578252748</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2388.358616186807</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2035.589960916693</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>1662.124202655613</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1271.984870679801</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6095,16 +6095,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>211.6471865296039</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>200.8329293182748</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>159.5099885583422</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="C26" t="n">
-        <v>53.94298182036445</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036445</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036445</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2919452781746</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>162.3281371763615</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>162.3281371763615</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982757</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y26" t="n">
-        <v>546.109828622464</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6305,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6405,22 +6405,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>550.5654064942401</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T28" t="n">
-        <v>550.5654064942401</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U28" t="n">
-        <v>261.391796148808</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V28" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W28" t="n">
         <v>53.94298182036445</v>
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2107.607341885688</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C29" t="n">
-        <v>2107.607341885688</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D29" t="n">
-        <v>1749.341643278937</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>726.6383956858608</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>726.6383956858608</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>308.6745875840477</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.607341885688</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2107.607341885688</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>2107.607341885688</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X29" t="n">
-        <v>2107.607341885688</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y29" t="n">
-        <v>2107.607341885688</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6545,40 +6545,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V31" t="n">
-        <v>661.3375275889166</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W31" t="n">
-        <v>371.9203575519559</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X31" t="n">
-        <v>371.9203575519559</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
-        <v>371.9203575519559</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>593.1972104235191</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="C32" t="n">
-        <v>593.1972104235191</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D32" t="n">
-        <v>593.1972104235191</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2568.567248384492</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2349.932581356555</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2096.170795994647</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2096.170795994647</v>
+        <v>1911.124176015613</v>
       </c>
       <c r="W32" t="n">
-        <v>1743.402140724533</v>
+        <v>1558.355520745499</v>
       </c>
       <c r="X32" t="n">
-        <v>1369.936382463453</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="Y32" t="n">
-        <v>979.7970504876409</v>
+        <v>1184.889762484419</v>
       </c>
     </row>
     <row r="33">
@@ -6761,19 +6761,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>2407.731920981262</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X34" t="n">
-        <v>2179.742370083244</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y34" t="n">
-        <v>2179.742370083244</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1937.083492693021</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C35" t="n">
-        <v>1568.120975752609</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="D35" t="n">
-        <v>1209.855277145859</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="E35" t="n">
-        <v>1209.855277145859</v>
+        <v>1139.788822026178</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>728.8029172365709</v>
       </c>
       <c r="G35" t="n">
         <v>381.1377017843616</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y35" t="n">
-        <v>2323.683332757143</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>189.3870358144924</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7116,31 +7116,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>336.2769833124028</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U37" t="n">
-        <v>336.2769833124028</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V37" t="n">
-        <v>336.2769833124028</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1219.679656148628</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C38" t="n">
-        <v>850.7171392082162</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036444</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2369.884586449641</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2369.884586449641</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V38" t="n">
-        <v>2369.884586449641</v>
+        <v>1931.818586886308</v>
       </c>
       <c r="W38" t="n">
-        <v>2369.884586449641</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="X38" t="n">
-        <v>1996.418828188561</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="Y38" t="n">
-        <v>1606.27949621275</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="39">
@@ -7238,16 +7238,16 @@
         <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036444</v>
@@ -7268,10 +7268,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036444</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1503.990562178703</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="C41" t="n">
-        <v>1503.990562178703</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="D41" t="n">
-        <v>1169.466600772895</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="E41" t="n">
-        <v>789.6710042631212</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="F41" t="n">
-        <v>409.8754077533476</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="G41" t="n">
-        <v>30.07981124357406</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="H41" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I41" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J41" t="n">
         <v>145.8476674765238</v>
       </c>
       <c r="K41" t="n">
-        <v>145.8476674765238</v>
+        <v>440.0984784965223</v>
       </c>
       <c r="L41" t="n">
-        <v>417.7290717515509</v>
+        <v>812.3361426357519</v>
       </c>
       <c r="M41" t="n">
-        <v>453.6669937516822</v>
+        <v>1184.573806774981</v>
       </c>
       <c r="N41" t="n">
-        <v>825.9046578909113</v>
+        <v>1478.484867963309</v>
       </c>
       <c r="O41" t="n">
-        <v>1198.14232203014</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="P41" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="Q41" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="R41" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="S41" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="T41" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="U41" t="n">
-        <v>1503.990562178703</v>
+        <v>1250.228776816797</v>
       </c>
       <c r="V41" t="n">
-        <v>1503.990562178703</v>
+        <v>1250.228776816797</v>
       </c>
       <c r="W41" t="n">
-        <v>1503.990562178703</v>
+        <v>897.460121546683</v>
       </c>
       <c r="X41" t="n">
-        <v>1503.990562178703</v>
+        <v>523.9943632856032</v>
       </c>
       <c r="Y41" t="n">
-        <v>1503.990562178703</v>
+        <v>357.2745312075713</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>964.6348046402928</v>
+        <v>425.8129419771346</v>
       </c>
       <c r="C42" t="n">
-        <v>790.1817753591658</v>
+        <v>251.3599126960076</v>
       </c>
       <c r="D42" t="n">
-        <v>641.2473656979146</v>
+        <v>251.3599126960076</v>
       </c>
       <c r="E42" t="n">
-        <v>482.0099106924591</v>
+        <v>92.12245769055208</v>
       </c>
       <c r="F42" t="n">
-        <v>335.4753527193441</v>
+        <v>92.12245769055208</v>
       </c>
       <c r="G42" t="n">
-        <v>197.5652396656102</v>
+        <v>92.12245769055208</v>
       </c>
       <c r="H42" t="n">
-        <v>92.12245769055204</v>
+        <v>92.12245769055208</v>
       </c>
       <c r="I42" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J42" t="n">
-        <v>30.07981124357406</v>
+        <v>105.3369736437039</v>
       </c>
       <c r="K42" t="n">
-        <v>30.07981124357406</v>
+        <v>105.3369736437039</v>
       </c>
       <c r="L42" t="n">
-        <v>373.0581933490344</v>
+        <v>477.5746377829335</v>
       </c>
       <c r="M42" t="n">
-        <v>745.2958574882634</v>
+        <v>849.8123019221631</v>
       </c>
       <c r="N42" t="n">
-        <v>1117.533521627493</v>
+        <v>928.9898874215964</v>
       </c>
       <c r="O42" t="n">
-        <v>1167.745748563874</v>
+        <v>1301.227551560826</v>
       </c>
       <c r="P42" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="Q42" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="R42" t="n">
-        <v>1453.777191590528</v>
+        <v>1453.77719159053</v>
       </c>
       <c r="S42" t="n">
-        <v>1453.777191590528</v>
+        <v>1295.604219234446</v>
       </c>
       <c r="T42" t="n">
-        <v>1453.777191590528</v>
+        <v>1295.604219234446</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.087498388562</v>
+        <v>1244.792186199432</v>
       </c>
       <c r="V42" t="n">
-        <v>1387.087498388562</v>
+        <v>1009.640077967689</v>
       </c>
       <c r="W42" t="n">
-        <v>1132.850141660361</v>
+        <v>1009.640077967689</v>
       </c>
       <c r="X42" t="n">
-        <v>1132.850141660361</v>
+        <v>801.7885777621566</v>
       </c>
       <c r="Y42" t="n">
-        <v>1132.850141660361</v>
+        <v>594.0282789972027</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.07981124357406</v>
+        <v>200.8037801023745</v>
       </c>
       <c r="C43" t="n">
-        <v>30.07981124357406</v>
+        <v>200.8037801023745</v>
       </c>
       <c r="D43" t="n">
-        <v>30.07981124357406</v>
+        <v>200.8037801023745</v>
       </c>
       <c r="E43" t="n">
-        <v>30.07981124357406</v>
+        <v>200.8037801023745</v>
       </c>
       <c r="F43" t="n">
-        <v>30.07981124357406</v>
+        <v>200.8037801023745</v>
       </c>
       <c r="G43" t="n">
-        <v>30.07981124357406</v>
+        <v>31.80397984070692</v>
       </c>
       <c r="H43" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I43" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K43" t="n">
-        <v>86.38200430984219</v>
+        <v>86.38200430984224</v>
       </c>
       <c r="L43" t="n">
         <v>213.9558618710006</v>
@@ -7596,25 +7596,25 @@
         <v>704.2658136296438</v>
       </c>
       <c r="S43" t="n">
-        <v>704.2658136296438</v>
+        <v>489.9773904478066</v>
       </c>
       <c r="T43" t="n">
-        <v>704.2658136296438</v>
+        <v>489.9773904478066</v>
       </c>
       <c r="U43" t="n">
-        <v>704.2658136296438</v>
+        <v>200.8037801023745</v>
       </c>
       <c r="V43" t="n">
-        <v>704.2658136296438</v>
+        <v>200.8037801023745</v>
       </c>
       <c r="W43" t="n">
-        <v>478.8619412851215</v>
+        <v>200.8037801023745</v>
       </c>
       <c r="X43" t="n">
-        <v>250.8723903871042</v>
+        <v>200.8037801023745</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.07981124357406</v>
+        <v>200.8037801023745</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>391.630713889042</v>
+        <v>370.9336108980774</v>
       </c>
       <c r="C44" t="n">
-        <v>391.630713889042</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="D44" t="n">
-        <v>33.36501528229149</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="E44" t="n">
-        <v>30.07981124357406</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="F44" t="n">
-        <v>30.07981124357406</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="G44" t="n">
-        <v>30.07981124357406</v>
+        <v>357.2745312075713</v>
       </c>
       <c r="H44" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I44" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J44" t="n">
-        <v>30.07981124357406</v>
+        <v>145.8476674765238</v>
       </c>
       <c r="K44" t="n">
-        <v>30.07981124357406</v>
+        <v>440.0984784965223</v>
       </c>
       <c r="L44" t="n">
-        <v>402.3174753828031</v>
+        <v>443.9346541406712</v>
       </c>
       <c r="M44" t="n">
-        <v>774.5551395220321</v>
+        <v>632.3138831350757</v>
       </c>
       <c r="N44" t="n">
-        <v>1146.792803661261</v>
+        <v>673.4471266639428</v>
       </c>
       <c r="O44" t="n">
-        <v>1351.533030951733</v>
+        <v>1045.684790803172</v>
       </c>
       <c r="P44" t="n">
-        <v>1351.533030951733</v>
+        <v>1351.533030951735</v>
       </c>
       <c r="Q44" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="R44" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="S44" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="T44" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="U44" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="V44" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="W44" t="n">
-        <v>1151.221906908589</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="X44" t="n">
-        <v>1151.221906908589</v>
+        <v>1130.524803917626</v>
       </c>
       <c r="Y44" t="n">
-        <v>771.4263103988155</v>
+        <v>750.7292074078515</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>509.9283820004711</v>
+        <v>721.2819096115009</v>
       </c>
       <c r="C45" t="n">
-        <v>335.4753527193441</v>
+        <v>546.8288803303739</v>
       </c>
       <c r="D45" t="n">
-        <v>335.4753527193441</v>
+        <v>397.8944706691226</v>
       </c>
       <c r="E45" t="n">
-        <v>335.4753527193441</v>
+        <v>238.6570156636671</v>
       </c>
       <c r="F45" t="n">
-        <v>335.4753527193441</v>
+        <v>92.12245769055208</v>
       </c>
       <c r="G45" t="n">
-        <v>197.5652396656102</v>
+        <v>92.12245769055208</v>
       </c>
       <c r="H45" t="n">
-        <v>92.12245769055204</v>
+        <v>92.12245769055208</v>
       </c>
       <c r="I45" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J45" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K45" t="n">
-        <v>285.3271316846726</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="L45" t="n">
-        <v>657.5647958239016</v>
+        <v>188.0985359742897</v>
       </c>
       <c r="M45" t="n">
-        <v>1029.802459963131</v>
+        <v>251.1974364198206</v>
       </c>
       <c r="N45" t="n">
-        <v>1402.04012410236</v>
+        <v>623.4351005590502</v>
       </c>
       <c r="O45" t="n">
-        <v>1452.252351038741</v>
+        <v>995.6727646982797</v>
       </c>
       <c r="P45" t="n">
-        <v>1503.990562178703</v>
+        <v>1331.917578313109</v>
       </c>
       <c r="Q45" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="R45" t="n">
-        <v>1503.990562178703</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="S45" t="n">
-        <v>1345.817589822619</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="T45" t="n">
-        <v>1146.939041945398</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="U45" t="n">
-        <v>1146.939041945398</v>
+        <v>1503.990562178705</v>
       </c>
       <c r="V45" t="n">
-        <v>1146.939041945398</v>
+        <v>1268.838453946963</v>
       </c>
       <c r="W45" t="n">
-        <v>892.7016852171967</v>
+        <v>1014.601097218761</v>
       </c>
       <c r="X45" t="n">
-        <v>717.688680765425</v>
+        <v>889.4972466315689</v>
       </c>
       <c r="Y45" t="n">
-        <v>509.9283820004711</v>
+        <v>889.4972466315689</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="C46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="D46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="E46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="F46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="G46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="H46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="I46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="K46" t="n">
-        <v>86.38200430984219</v>
+        <v>86.38200430984224</v>
       </c>
       <c r="L46" t="n">
         <v>213.9558618710006</v>
@@ -7833,25 +7833,25 @@
         <v>704.2658136296438</v>
       </c>
       <c r="S46" t="n">
-        <v>704.2658136296438</v>
+        <v>489.9773904478066</v>
       </c>
       <c r="T46" t="n">
-        <v>573.937909794893</v>
+        <v>262.6692031164083</v>
       </c>
       <c r="U46" t="n">
-        <v>284.764299449461</v>
+        <v>262.6692031164083</v>
       </c>
       <c r="V46" t="n">
-        <v>30.07981124357406</v>
+        <v>258.0693621415915</v>
       </c>
       <c r="W46" t="n">
-        <v>30.07981124357406</v>
+        <v>258.0693621415915</v>
       </c>
       <c r="X46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.07981124357406</v>
+        <v>30.07981124357411</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>102.255002290031</v>
       </c>
       <c r="K12" t="n">
-        <v>245.3538470909427</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>452.2044561277944</v>
+        <v>418.4145026122974</v>
       </c>
       <c r="N12" t="n">
-        <v>63.66959644756352</v>
+        <v>439.6672369922397</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>84.28877071640694</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>106.7682417589427</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>102.255002290031</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>452.2044561277944</v>
+        <v>452.2044561277946</v>
       </c>
       <c r="N15" t="n">
-        <v>147.8672525028338</v>
+        <v>405.8772834767424</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>84.28877071640693</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.7682417589428</v>
+        <v>106.7682417589426</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10193,7 +10193,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>274.4264991783514</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>26.92237113682285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>270.7527561928064</v>
+        <v>372.1227156515966</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>339.6967092314125</v>
       </c>
       <c r="N41" t="n">
-        <v>334.4489097074363</v>
+        <v>255.3311289489497</v>
       </c>
       <c r="O41" t="n">
-        <v>350.234313054376</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q41" t="n">
         <v>58.3174843700358</v>
@@ -11138,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>6.639660809448827</v>
       </c>
       <c r="L42" t="n">
-        <v>308.5802079396092</v>
+        <v>338.1350382767498</v>
       </c>
       <c r="M42" t="n">
-        <v>312.261377468382</v>
+        <v>312.2613774683825</v>
       </c>
       <c r="N42" t="n">
-        <v>296.0202814543392</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>325.2782193968161</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>183.6326646026144</v>
       </c>
       <c r="Q42" t="n">
         <v>36.26619292211501</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>26.92237113682285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>372.1227156515961</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>339.6967092314119</v>
+        <v>153.9811181760335</v>
       </c>
       <c r="N44" t="n">
-        <v>334.4489097074363</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>181.0449829041163</v>
+        <v>350.2343130543766</v>
       </c>
       <c r="P44" t="n">
-        <v>12.86109185980291</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448827</v>
       </c>
       <c r="L45" t="n">
-        <v>338.1350382767492</v>
+        <v>121.7522711974427</v>
       </c>
       <c r="M45" t="n">
-        <v>312.261377468382</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>296.0202814543391</v>
+        <v>296.0202814543397</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>325.2782193968162</v>
       </c>
       <c r="P45" t="n">
-        <v>31.08236209966727</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.26619292211501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>364.8357591674553</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,10 +22609,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,16 +22628,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>43.49641013031703</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6685916688422</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22749,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>283.8997115633647</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>97.64028516680975</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.413852178044</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22989,10 +22989,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23117,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>183.340860750515</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.736201118804615</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>18.71230058284988</v>
+        <v>5.932729527585423</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>48.11618515975977</v>
       </c>
       <c r="G11" t="n">
         <v>414.8164365177525</v>
@@ -23278,7 +23278,7 @@
         <v>334.4944720263235</v>
       </c>
       <c r="I11" t="n">
-        <v>191.7277703688168</v>
+        <v>191.7277703688167</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>119.3215129143207</v>
+        <v>119.3215129143206</v>
       </c>
       <c r="S11" t="n">
-        <v>197.9384856083915</v>
+        <v>197.9384856083914</v>
       </c>
       <c r="T11" t="n">
         <v>220.9670669480894</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23354,10 +23354,10 @@
         <v>137.0833231908847</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.7225182406118</v>
       </c>
       <c r="I12" t="n">
-        <v>57.91122328173259</v>
+        <v>80.4382000322985</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>84.00298383577505</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>116.2167179812239</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23439,7 +23439,7 @@
         <v>148.8904737762557</v>
       </c>
       <c r="J13" t="n">
-        <v>77.93683158240826</v>
+        <v>77.93683158240822</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.89596991376067</v>
+        <v>67.89596991376062</v>
       </c>
       <c r="R13" t="n">
-        <v>131.9969159651539</v>
+        <v>166.1664035676754</v>
       </c>
       <c r="S13" t="n">
         <v>220.2150496069626</v>
@@ -23472,10 +23472,10 @@
         <v>227.0135457339129</v>
       </c>
       <c r="U13" t="n">
-        <v>286.30713092635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>40.02689950684294</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>30.87840519703553</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>38.81879597307665</v>
+        <v>414.8164365177525</v>
       </c>
       <c r="H14" t="n">
-        <v>334.4944720263235</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>191.7277703688168</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>119.3215129143207</v>
+        <v>119.3215129143206</v>
       </c>
       <c r="S14" t="n">
-        <v>197.9384856083915</v>
+        <v>197.9384856083914</v>
       </c>
       <c r="T14" t="n">
         <v>220.9670669480894</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>140.7057099859253</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0833231908847</v>
       </c>
       <c r="H15" t="n">
-        <v>76.04289700319191</v>
+        <v>109.7225182406118</v>
       </c>
       <c r="I15" t="n">
-        <v>80.43820003229852</v>
+        <v>80.43820003229848</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.0029838357751</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>166.8501821880469</v>
       </c>
       <c r="T15" t="n">
-        <v>199.1159643940868</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>118.531319140004</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.1152474165371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7728414725427</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>160.2877283944769</v>
@@ -23676,7 +23676,7 @@
         <v>148.8904737762557</v>
       </c>
       <c r="J16" t="n">
-        <v>77.93683158240826</v>
+        <v>77.9368315824082</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.89596991376068</v>
+        <v>67.89596991376061</v>
       </c>
       <c r="R16" t="n">
-        <v>167.485118797708</v>
+        <v>167.4851187977079</v>
       </c>
       <c r="S16" t="n">
         <v>220.2150496069626</v>
@@ -23709,7 +23709,7 @@
         <v>227.0135457339129</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.30713092635</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>105.8566507051972</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>37.74728150147308</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>298.715615769926</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>84.89832651773844</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.124694634980813</v>
       </c>
       <c r="G20" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>89.78322210199978</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>32.89802883548758</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>196.2969282684434</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>90.65283480088232</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24417,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>241.4315286846122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>44.63001244242423</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>81.1486721514319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>71.73848305831078</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>112.9202716085211</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24891,22 +24891,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>1.885271837007195</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>186.0141012724856</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>47.1196886015788</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>191.6757932924704</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.62049154535694</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25131,7 +25131,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2298161546243591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>69.59560672310784</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>33.22018880486425</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>121.3505762185461</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>37.74754724548734</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>165.9828178131687</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>23.50431982893264</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>5.932729527585991</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>30.87840519703565</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>37.7865294761192</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25684,19 +25684,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>221.185304898802</v>
       </c>
     </row>
     <row r="42">
@@ -25712,19 +25712,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>159.8651315189227</v>
+        <v>175.5840150842045</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>154.4639619306337</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923383</v>
@@ -25836,25 +25836,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>63.37316471551387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.736201118804786</v>
+        <v>6.736201118804217</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>351.7504028774065</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>378.6780180739315</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.2402981113778</v>
+        <v>10.24029811137723</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>32.51011079622359</v>
+        <v>81.92017312215715</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,22 +26073,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>247.5838007587593</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473974.7313298002</v>
+        <v>473974.7313298003</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473974.7313298002</v>
+        <v>473974.7313298004</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473974.7313298002</v>
+        <v>473974.7313298001</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>572725.1678848468</v>
+        <v>572725.1678848471</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>572725.1678848469</v>
+        <v>572725.1678848473</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>784886.8917865065</v>
+        <v>784886.8917865066</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>784886.8917865066</v>
+        <v>784886.8917865065</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>784886.8917865065</v>
+        <v>784886.8917865066</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>784886.8917865066</v>
+        <v>784886.8917865067</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>784886.8917865065</v>
+        <v>784886.8917865067</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>784886.8917865067</v>
+        <v>784886.8917865065</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>784886.8917865066</v>
+        <v>784886.8917865067</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>583135.9029526805</v>
+        <v>583135.9029526813</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>583135.9029526805</v>
+        <v>583135.9029526811</v>
       </c>
     </row>
   </sheetData>
@@ -26322,25 +26322,25 @@
         <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
-        <v>205263.9441545473</v>
+        <v>205263.9441545474</v>
       </c>
       <c r="F2" t="n">
-        <v>205263.9441545472</v>
+        <v>205263.9441545475</v>
       </c>
       <c r="G2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="H2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157576</v>
@@ -26349,13 +26349,13 @@
         <v>289152.6100157575</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="O2" t="n">
         <v>218538.8633302714</v>
       </c>
       <c r="P2" t="n">
-        <v>218538.8633302714</v>
+        <v>218538.8633302716</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137488.6096238091</v>
+        <v>137488.6096238095</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>281396.9420968515</v>
+        <v>281396.942096851</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>33638.39116882728</v>
+        <v>33638.39116882734</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>58752.58249917302</v>
       </c>
       <c r="D4" t="n">
-        <v>58752.58249917302</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="E4" t="n">
         <v>59848.32243696327</v>
       </c>
       <c r="F4" t="n">
-        <v>59848.32243696326</v>
+        <v>59848.32243696327</v>
       </c>
       <c r="G4" t="n">
         <v>62518.47524617217</v>
       </c>
       <c r="H4" t="n">
-        <v>62518.47524617217</v>
+        <v>62518.47524617216</v>
       </c>
       <c r="I4" t="n">
         <v>62518.47524617217</v>
@@ -26444,7 +26444,7 @@
         <v>62518.47524617217</v>
       </c>
       <c r="K4" t="n">
-        <v>62518.47524617217</v>
+        <v>62518.47524617216</v>
       </c>
       <c r="L4" t="n">
         <v>62518.47524617217</v>
@@ -26453,13 +26453,13 @@
         <v>62518.47524617217</v>
       </c>
       <c r="N4" t="n">
-        <v>62518.47524617217</v>
+        <v>62518.47524617216</v>
       </c>
       <c r="O4" t="n">
-        <v>37085.71065074657</v>
+        <v>37085.71065074662</v>
       </c>
       <c r="P4" t="n">
-        <v>37085.71065074657</v>
+        <v>37085.71065074662</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>25497.74527867229</v>
+        <v>25497.74527867232</v>
       </c>
       <c r="F5" t="n">
-        <v>25497.74527867229</v>
+        <v>25497.74527867232</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>31095.46842504877</v>
+        <v>31095.46842504881</v>
       </c>
       <c r="P5" t="n">
-        <v>31095.46842504877</v>
+        <v>31095.46842504881</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21642.61026315006</v>
+        <v>-33860.62088319052</v>
       </c>
       <c r="C6" t="n">
-        <v>59126.82126839767</v>
+        <v>46908.81064835726</v>
       </c>
       <c r="D6" t="n">
-        <v>59126.82126839767</v>
+        <v>46908.81064835728</v>
       </c>
       <c r="E6" t="n">
-        <v>-17570.7331848974</v>
+        <v>-27833.58022377742</v>
       </c>
       <c r="F6" t="n">
-        <v>119917.8764389117</v>
+        <v>109655.0294000322</v>
       </c>
       <c r="G6" t="n">
-        <v>-103994.2853906757</v>
+        <v>-110062.6991364945</v>
       </c>
       <c r="H6" t="n">
-        <v>177402.6567061759</v>
+        <v>171334.2429603566</v>
       </c>
       <c r="I6" t="n">
-        <v>177402.6567061758</v>
+        <v>171334.2429603566</v>
       </c>
       <c r="J6" t="n">
-        <v>114342.7141070696</v>
+        <v>108274.3003612505</v>
       </c>
       <c r="K6" t="n">
-        <v>177402.6567061758</v>
+        <v>171334.2429603568</v>
       </c>
       <c r="L6" t="n">
-        <v>177402.6567061759</v>
+        <v>171334.2429603568</v>
       </c>
       <c r="M6" t="n">
-        <v>143764.2655373486</v>
+        <v>137695.8517915293</v>
       </c>
       <c r="N6" t="n">
-        <v>177402.6567061758</v>
+        <v>171334.2429603565</v>
       </c>
       <c r="O6" t="n">
-        <v>150357.684254476</v>
+        <v>140758.5831743825</v>
       </c>
       <c r="P6" t="n">
-        <v>150357.684254476</v>
+        <v>140758.5831743826</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120.9673730988987</v>
+        <v>120.9673730988991</v>
       </c>
       <c r="F3" t="n">
-        <v>120.9673730988987</v>
+        <v>120.9673730988991</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>375.997640544676</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="F4" t="n">
-        <v>375.9976405446759</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>375.9976405446758</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="P4" t="n">
-        <v>375.9976405446758</v>
+        <v>375.9976405446764</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120.9673730988987</v>
+        <v>120.9673730988991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>256.7762911181879</v>
+        <v>256.7762911181875</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>134.9833516670169</v>
+        <v>134.9833516670173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>298.2896322098797</v>
+        <v>298.2896322098791</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>134.9833516670169</v>
+        <v>134.9833516670171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>134.9833516670169</v>
+        <v>134.9833516670173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>298.2896322098797</v>
+        <v>298.2896322098791</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4863009973825071</v>
+        <v>0.4863009973825086</v>
       </c>
       <c r="H11" t="n">
-        <v>4.980330089443603</v>
+        <v>4.980330089443617</v>
       </c>
       <c r="I11" t="n">
-        <v>18.74811920158913</v>
+        <v>18.74811920158918</v>
       </c>
       <c r="J11" t="n">
-        <v>41.2741892765936</v>
+        <v>41.27418927659372</v>
       </c>
       <c r="K11" t="n">
-        <v>61.85931049579514</v>
+        <v>61.85931049579533</v>
       </c>
       <c r="L11" t="n">
-        <v>76.74194464444007</v>
+        <v>76.7419446444403</v>
       </c>
       <c r="M11" t="n">
-        <v>85.39020000664122</v>
+        <v>85.39020000664148</v>
       </c>
       <c r="N11" t="n">
-        <v>86.77190271545427</v>
+        <v>86.77190271545453</v>
       </c>
       <c r="O11" t="n">
-        <v>81.93624717273197</v>
+        <v>81.93624717273221</v>
       </c>
       <c r="P11" t="n">
-        <v>69.9306912998513</v>
+        <v>69.93069129985152</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.51503683109026</v>
+        <v>52.51503683109041</v>
       </c>
       <c r="R11" t="n">
-        <v>30.54760502682894</v>
+        <v>30.54760502682903</v>
       </c>
       <c r="S11" t="n">
-        <v>11.08158397785389</v>
+        <v>11.08158397785393</v>
       </c>
       <c r="T11" t="n">
-        <v>2.128782616041926</v>
+        <v>2.128782616041932</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03890407979060057</v>
+        <v>0.03890407979060068</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2601939723259332</v>
+        <v>0.2601939723259339</v>
       </c>
       <c r="H12" t="n">
-        <v>2.512925995884671</v>
+        <v>2.512925995884678</v>
       </c>
       <c r="I12" t="n">
-        <v>8.95843281911656</v>
+        <v>8.958432819116586</v>
       </c>
       <c r="J12" t="n">
-        <v>24.58262437663565</v>
+        <v>24.58262437663572</v>
       </c>
       <c r="K12" t="n">
-        <v>42.01562052247316</v>
+        <v>42.01562052247329</v>
       </c>
       <c r="L12" t="n">
-        <v>56.49518684208475</v>
+        <v>56.49518684208491</v>
       </c>
       <c r="M12" t="n">
-        <v>65.92721833889981</v>
+        <v>65.9272183389</v>
       </c>
       <c r="N12" t="n">
-        <v>67.67211563576979</v>
+        <v>67.67211563576998</v>
       </c>
       <c r="O12" t="n">
-        <v>61.90676498581094</v>
+        <v>61.90676498581113</v>
       </c>
       <c r="P12" t="n">
-        <v>49.68563669792315</v>
+        <v>49.6856366979233</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.21353232707877</v>
+        <v>33.21353232707887</v>
       </c>
       <c r="R12" t="n">
-        <v>16.15485031686803</v>
+        <v>16.15485031686808</v>
       </c>
       <c r="S12" t="n">
-        <v>4.832988915790905</v>
+        <v>4.832988915790919</v>
       </c>
       <c r="T12" t="n">
-        <v>1.048764300734792</v>
+        <v>1.048764300734795</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01711802449512719</v>
+        <v>0.01711802449512724</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2181378859160469</v>
+        <v>0.2181378859160475</v>
       </c>
       <c r="H13" t="n">
-        <v>1.939444112962673</v>
+        <v>1.939444112962679</v>
       </c>
       <c r="I13" t="n">
-        <v>6.560001151002576</v>
+        <v>6.560001151002595</v>
       </c>
       <c r="J13" t="n">
-        <v>15.42234853426451</v>
+        <v>15.42234853426456</v>
       </c>
       <c r="K13" t="n">
-        <v>25.34365620006435</v>
+        <v>25.34365620006443</v>
       </c>
       <c r="L13" t="n">
-        <v>32.43115442064574</v>
+        <v>32.43115442064584</v>
       </c>
       <c r="M13" t="n">
-        <v>34.19410515318542</v>
+        <v>34.19410515318552</v>
       </c>
       <c r="N13" t="n">
-        <v>33.38104576022564</v>
+        <v>33.38104576022573</v>
       </c>
       <c r="O13" t="n">
-        <v>30.83279863838817</v>
+        <v>30.83279863838826</v>
       </c>
       <c r="P13" t="n">
-        <v>26.38278576570079</v>
+        <v>26.38278576570087</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.26607333793371</v>
+        <v>18.26607333793376</v>
       </c>
       <c r="R13" t="n">
-        <v>9.808272579461525</v>
+        <v>9.808272579461553</v>
       </c>
       <c r="S13" t="n">
-        <v>3.801548430009652</v>
+        <v>3.801548430009663</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9320436943685638</v>
+        <v>0.9320436943685665</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0118984301408753</v>
+        <v>0.01189843014087533</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4863009973825071</v>
+        <v>0.4863009973825088</v>
       </c>
       <c r="H14" t="n">
-        <v>4.980330089443602</v>
+        <v>4.980330089443619</v>
       </c>
       <c r="I14" t="n">
-        <v>18.74811920158912</v>
+        <v>18.74811920158919</v>
       </c>
       <c r="J14" t="n">
-        <v>41.2741892765936</v>
+        <v>41.27418927659374</v>
       </c>
       <c r="K14" t="n">
-        <v>61.85931049579514</v>
+        <v>61.85931049579535</v>
       </c>
       <c r="L14" t="n">
-        <v>76.74194464444005</v>
+        <v>76.74194464444032</v>
       </c>
       <c r="M14" t="n">
-        <v>85.39020000664121</v>
+        <v>85.39020000664151</v>
       </c>
       <c r="N14" t="n">
-        <v>86.77190271545427</v>
+        <v>86.77190271545456</v>
       </c>
       <c r="O14" t="n">
-        <v>81.93624717273195</v>
+        <v>81.93624717273224</v>
       </c>
       <c r="P14" t="n">
-        <v>69.9306912998513</v>
+        <v>69.93069129985155</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.51503683109025</v>
+        <v>52.51503683109043</v>
       </c>
       <c r="R14" t="n">
-        <v>30.54760502682894</v>
+        <v>30.54760502682904</v>
       </c>
       <c r="S14" t="n">
-        <v>11.08158397785389</v>
+        <v>11.08158397785393</v>
       </c>
       <c r="T14" t="n">
-        <v>2.128782616041926</v>
+        <v>2.128782616041933</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03890407979060056</v>
+        <v>0.03890407979060069</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2601939723259331</v>
+        <v>0.260193972325934</v>
       </c>
       <c r="H15" t="n">
-        <v>2.51292599588467</v>
+        <v>2.512925995884679</v>
       </c>
       <c r="I15" t="n">
-        <v>8.958432819116558</v>
+        <v>8.95843281911659</v>
       </c>
       <c r="J15" t="n">
-        <v>24.58262437663564</v>
+        <v>24.58262437663572</v>
       </c>
       <c r="K15" t="n">
-        <v>42.01562052247316</v>
+        <v>42.01562052247331</v>
       </c>
       <c r="L15" t="n">
-        <v>56.49518684208474</v>
+        <v>56.49518684208493</v>
       </c>
       <c r="M15" t="n">
-        <v>65.92721833889981</v>
+        <v>65.92721833890002</v>
       </c>
       <c r="N15" t="n">
-        <v>67.67211563576977</v>
+        <v>67.67211563577001</v>
       </c>
       <c r="O15" t="n">
-        <v>61.90676498581094</v>
+        <v>61.90676498581115</v>
       </c>
       <c r="P15" t="n">
-        <v>49.68563669792314</v>
+        <v>49.68563669792331</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.21353232707877</v>
+        <v>33.21353232707888</v>
       </c>
       <c r="R15" t="n">
-        <v>16.15485031686803</v>
+        <v>16.15485031686809</v>
       </c>
       <c r="S15" t="n">
-        <v>4.832988915790904</v>
+        <v>4.832988915790921</v>
       </c>
       <c r="T15" t="n">
-        <v>1.048764300734792</v>
+        <v>1.048764300734795</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01711802449512718</v>
+        <v>0.01711802449512724</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2181378859160469</v>
+        <v>0.2181378859160476</v>
       </c>
       <c r="H16" t="n">
-        <v>1.939444112962673</v>
+        <v>1.939444112962679</v>
       </c>
       <c r="I16" t="n">
-        <v>6.560001151002576</v>
+        <v>6.560001151002598</v>
       </c>
       <c r="J16" t="n">
-        <v>15.42234853426451</v>
+        <v>15.42234853426457</v>
       </c>
       <c r="K16" t="n">
-        <v>25.34365620006435</v>
+        <v>25.34365620006444</v>
       </c>
       <c r="L16" t="n">
-        <v>32.43115442064574</v>
+        <v>32.43115442064585</v>
       </c>
       <c r="M16" t="n">
-        <v>34.19410515318542</v>
+        <v>34.19410515318553</v>
       </c>
       <c r="N16" t="n">
-        <v>33.38104576022563</v>
+        <v>33.38104576022575</v>
       </c>
       <c r="O16" t="n">
-        <v>30.83279863838816</v>
+        <v>30.83279863838827</v>
       </c>
       <c r="P16" t="n">
-        <v>26.38278576570078</v>
+        <v>26.38278576570088</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.26607333793371</v>
+        <v>18.26607333793377</v>
       </c>
       <c r="R16" t="n">
-        <v>9.808272579461523</v>
+        <v>9.808272579461557</v>
       </c>
       <c r="S16" t="n">
-        <v>3.801548430009652</v>
+        <v>3.801548430009665</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9320436943685637</v>
+        <v>0.9320436943685668</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0118984301408753</v>
+        <v>0.01189843014087534</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -34710,10 +34710,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.32489992198109</v>
+        <v>29.32489992198121</v>
       </c>
       <c r="K11" t="n">
-        <v>165.9148720219793</v>
+        <v>165.9148720219795</v>
       </c>
       <c r="L11" t="n">
-        <v>258.6367442249033</v>
+        <v>258.6367442249035</v>
       </c>
       <c r="M11" t="n">
-        <v>304.557500272201</v>
+        <v>304.5575002722013</v>
       </c>
       <c r="N11" t="n">
-        <v>294.7057635308475</v>
+        <v>294.7057635308478</v>
       </c>
       <c r="O11" t="n">
-        <v>232.6382170137906</v>
+        <v>232.6382170137908</v>
       </c>
       <c r="P11" t="n">
-        <v>160.4964037160644</v>
+        <v>160.4964037160646</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.52433761654545</v>
+        <v>42.52433761654561</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23.83603305037779</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>149.5280286390569</v>
+        <v>168.6394185606929</v>
       </c>
       <c r="L12" t="n">
-        <v>288.7811523656698</v>
+        <v>288.7811523656699</v>
       </c>
       <c r="M12" t="n">
-        <v>375.997640544676</v>
+        <v>342.2076870291791</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="O12" t="n">
-        <v>313.172839818096</v>
+        <v>313.1728398180962</v>
       </c>
       <c r="P12" t="n">
-        <v>234.1739979235301</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.3090459769063</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3.0741643741815</v>
+        <v>3.074164374181574</v>
       </c>
       <c r="L13" t="n">
-        <v>60.02117968096188</v>
+        <v>60.02117968096198</v>
       </c>
       <c r="M13" t="n">
-        <v>73.77798211502601</v>
+        <v>73.77798211502611</v>
       </c>
       <c r="N13" t="n">
-        <v>77.51321813945424</v>
+        <v>77.51321813945432</v>
       </c>
       <c r="O13" t="n">
-        <v>55.41792655242784</v>
+        <v>55.41792655242793</v>
       </c>
       <c r="P13" t="n">
-        <v>23.66134503059428</v>
+        <v>23.66134503059435</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.32489992198109</v>
+        <v>29.32489992198122</v>
       </c>
       <c r="K14" t="n">
-        <v>165.9148720219793</v>
+        <v>165.9148720219795</v>
       </c>
       <c r="L14" t="n">
-        <v>258.6367442249033</v>
+        <v>258.6367442249035</v>
       </c>
       <c r="M14" t="n">
-        <v>304.557500272201</v>
+        <v>304.5575002722013</v>
       </c>
       <c r="N14" t="n">
-        <v>294.7057635308475</v>
+        <v>294.7057635308478</v>
       </c>
       <c r="O14" t="n">
-        <v>232.6382170137906</v>
+        <v>232.6382170137909</v>
       </c>
       <c r="P14" t="n">
-        <v>160.4964037160644</v>
+        <v>160.4964037160647</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.52433761654544</v>
+        <v>42.52433761654562</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>23.83603305037779</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>168.6394185606928</v>
+        <v>168.6394185606929</v>
       </c>
       <c r="L15" t="n">
-        <v>288.7811523656698</v>
+        <v>288.7811523656699</v>
       </c>
       <c r="M15" t="n">
-        <v>375.9976405446759</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="N15" t="n">
-        <v>84.19765605527031</v>
+        <v>342.2076870291791</v>
       </c>
       <c r="O15" t="n">
-        <v>313.172839818096</v>
+        <v>313.1728398180962</v>
       </c>
       <c r="P15" t="n">
-        <v>234.1739979235301</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3.074164374181496</v>
+        <v>3.074164374181585</v>
       </c>
       <c r="L16" t="n">
-        <v>60.02117968096188</v>
+        <v>60.02117968096199</v>
       </c>
       <c r="M16" t="n">
-        <v>73.77798211502601</v>
+        <v>73.77798211502612</v>
       </c>
       <c r="N16" t="n">
-        <v>77.51321813945422</v>
+        <v>77.51321813945434</v>
       </c>
       <c r="O16" t="n">
-        <v>55.41792655242784</v>
+        <v>55.41792655242794</v>
       </c>
       <c r="P16" t="n">
-        <v>23.66134503059427</v>
+        <v>23.66134503059437</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>274.627681085886</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="M41" t="n">
-        <v>36.30093131326393</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="N41" t="n">
-        <v>375.9976405446758</v>
+        <v>296.8798597861892</v>
       </c>
       <c r="O41" t="n">
-        <v>375.9976405446758</v>
+        <v>25.76332749029979</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>346.4428102075357</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="M42" t="n">
-        <v>375.9976405446758</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="N42" t="n">
-        <v>375.9976405446758</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O42" t="n">
-        <v>50.71942114786023</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>204.8111218362419</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>375.9976405446758</v>
+        <v>3.87492489307968</v>
       </c>
       <c r="M44" t="n">
-        <v>375.9976405446758</v>
+        <v>190.2820494892974</v>
       </c>
       <c r="N44" t="n">
-        <v>375.9976405446758</v>
+        <v>41.54873083723948</v>
       </c>
       <c r="O44" t="n">
-        <v>206.8083103944161</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>375.9976405446758</v>
+        <v>159.6148734653692</v>
       </c>
       <c r="M45" t="n">
-        <v>375.9976405446758</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N45" t="n">
-        <v>375.9976405446758</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="O45" t="n">
-        <v>50.71942114786023</v>
+        <v>375.9976405446764</v>
       </c>
       <c r="P45" t="n">
-        <v>52.26081933329473</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
